--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aminacyl,aminopar,aminosalicylate,aminosalicylic,aminosalyl,aminox,apacil,deapasil,entepas,gabbropas,granupas,helipidyl,hellipidyl,nemasol,nippas,osacyl,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,pasem,paser,pasmed,pasnal,pasnodia,pasolac,passodico,pharmakon,propasa,rezipas,salvis,sanipirol,sanipriol,sodiopas,spectrum</t>
+          <t>aminacyl,aminopar,aminosalyl,aminox,apacil,deapasil,entepas,gabbropas,granupas,helipidyl,hellipidyl,nemasol,nippas,osacyl,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,pasem,paser,pasmed,pasnal,pasnodia,pasolac,passodico,pharmakon,propasa,rezipas,salvis,sanipirol,sanipriol,sodiopas,spectrum</t>
         </is>
       </c>
       <c r="J2">
@@ -730,7 +730,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>amicacin,amikacillin,amikacina,amikacine,amikacinum,amikavet,amikin,amikozit,amukin,arikace,briclin,butirosins,kaminax,lukadin,mikavir,potentox,prestwick</t>
+          <t>amikacillin,amikacina,amikacine,amikacinum,amikavet,amikin,amikozit,amukin,arikace,briclin,butirosins,kaminax,lukadin,mikavir,potentox,prestwick</t>
         </is>
       </c>
       <c r="J6" t="e">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>acillin,adobacillin,alpen,amblosin,amcap,amcill,amfipen,ampen,amperil,ampichel,ampicil,ampicilina,ampicillina,ampicilline,ampicillinesalt,ampicillinsalt,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampinova,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,austrapen,bayer,binotal,bonapicillin,britacil,campicillin,cimex,citteral,copharcilin,cymbi,delcillin,deripen,divercillin,doktacillin,domicillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,omnipen,orbicilina,penbristol,penbritin,penbrock,penialmen,penicillin,penicline,penimic,penizillin,pensyn,pentrex,pentrexl,pentrexyl,pentritin,ponecil,princillin,principen,racenacillin,redicilin,rosampline,roscillin,semicillin,servicillin,sumipanto,supen,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trafarbiot,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,vidocillin,wypicil</t>
+          <t>adobacillin,alpen,amblosin,amcap,amcill,amfipen,ampen,amperil,ampichel,ampicilina,ampicillina,ampicilline,ampicillinesalt,ampicillinsalt,ampicillinum,ampifarm,ampikel,ampimed,ampinova,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,austrapen,bayer,binotal,bonapicillin,britacil,cimex,citteral,copharcilin,cymbi,delcillin,deripen,divercillin,doktacillin,domicillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,omnipen,orbicilina,penbristol,penbritin,penbrock,penialmen,penicline,penimic,penizillin,pensyn,pentrex,pentrexl,pentrexyl,pentritin,ponecil,princillin,principen,racenacillin,redicilin,rosampline,roscillin,semicillin,servicillin,sumipanto,supen,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trafarbiot,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,vidocillin,wypicil</t>
         </is>
       </c>
       <c r="J14">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,tobil,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zifin,zithrax,zithromac,zithromax,zithromycin,zitrim,zitromax,zitrotek,zythromax</t>
+          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,tobil,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zifin,zithrax,zithromac,zithromax,zitrim,zitromax,zitrotek,zythromax</t>
         </is>
       </c>
       <c r="J27">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>albac,altracin,ayfivin,baciferm,baciguent,baciim,baciliquin,bacilliquin,baciquent,bacitracina,bacitracine,bacitracinum,citracin,fortracin,mycitracin,parentracin,penitracin,septa,topitracin,topitrasin,tropitracin,zutracin</t>
+          <t>albac,altracin,ayfivin,baciferm,baciguent,baciim,baciliquin,bacilliquin,baciquent,bacitracina,bacitracine,bacitracinum,fortracin,mycitracin,parentracin,penitracin,septa,topitracin,topitrasin,tropitracin,zutracin</t>
         </is>
       </c>
       <c r="J34" t="e">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>bencilpenicilina,benzopenicillin,benzylpenicilline,benzylpenicillinum,capicillin,cillora,cilloral,cilopen,cintrisul,cosmopen,cristapen,crystapen,dropcillin,eskacillin,ethacillin,falapen,forpen,galofak,gelacillin,hipercilina,hyasorb,hylenta,lemopen,liquacillin,liquapen,monocillin,monopen,mycofarm,novocillin,penalev,penicillinum,penilaryn,penisem,pentid,pentids,pfizerpen,pharmacillin,pradupen,scotcil,sugracillin,sugracillinsalt,tabilin,ursopen,veticillin</t>
+          <t>bencilpenicilina,benzopenicillin,benzylpenicilline,benzylpenicillinum,capicillin,cillora,cilloral,cilopen,cintrisul,cosmopen,cristapen,crystapen,dropcillin,eskacillin,falapen,forpen,galofak,gelacillin,hipercilina,hyasorb,hylenta,lemopen,liquacillin,liquapen,monocillin,monopen,mycofarm,novocillin,penalev,penicillinum,penilaryn,penisem,pentid,pentids,pfizerpen,pharmacillin,pradupen,scotcil,sugracillin,sugracillinsalt,tabilin,ursopen,veticillin</t>
         </is>
       </c>
       <c r="J39" t="e">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>alenfral,alfacet,alfatil,ceclor,cefachlor,cefaclorum,cefeaclor,cephaclor,cephalexin,compound,distaclor,keflor,kefolor,kefral,keftab,keftid,lilly,lopac,panacef,panoral,raniclor</t>
+          <t>alenfral,alfacet,alfatil,ceclor,cefachlor,cefaclorum,cefeaclor,cephaclor,compound,distaclor,keflor,kefolor,kefral,keftab,keftid,lilly,lopac,panacef,panoral,raniclor</t>
         </is>
       </c>
       <c r="J56">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>adcadina,alcephin,alexin,alsporin,ambal,amplex,aristosporin,azabort,bactopenor,beliam,biocef,carnosporin,cefablan,cefacet,cefadal,cefadin,cefadina,cefalekey,cefaleksin,cefalessina,cefalexgobens,cefalexina,cefalexine,cefalexinum,cefalin,cefalival,cefaloto,cefanex,cefaseptin,cefax,ceffanex,cefibacter,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexine,cephalexinum,cephalobene,cephanasten,cephaxin,cephin,cepol,ceporex,ceporexin,ceporexine,cerexin,cerexins,check,cophalexin,domucef,doriman,durantel,efemida,erocetin,factagard,felexin,fexin,ibilex,ibrexin,inphalex,karilexina,kefalospes,keflet,keflex,kefolan,keforal,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,loisine,lonflex,lopilexin,losporal,madlexin,maksipor,mamalexin,mamlexin,medolexin,medoxine,neokef,neolexina,noveol,novolexin,nufex,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixine,pectril,prindex,pyassan,rilexine,roceph,rogevil,sanaxin,sartosona,sencephalin,sepexin,servicef,servispor,sialexin,sinthecillin,sintolexyn,sporicef,sporidex,syncl,syncle,synecl,taicelexin,tepaxin,theratrex,tokiolexin,uphalexin,viosporine,voxxim,winlex,zabytrex,zozarine</t>
+          <t>adcadina,alcephin,alsporin,ambal,amplex,aristosporin,azabort,bactopenor,beliam,biocef,carnosporin,cefablan,cefacet,cefadal,cefadin,cefadina,cefalekey,cefaleksin,cefalessina,cefalexgobens,cefalexina,cefalexine,cefalexinum,cefalin,cefalival,cefaloto,cefanex,cefaseptin,cefax,ceffanex,cefibacter,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexine,cephalexinum,cephalobene,cephanasten,cephaxin,cephin,cepol,ceporex,ceporexin,ceporexine,cerexin,cerexins,check,cophalexin,domucef,doriman,durantel,efemida,erocetin,factagard,felexin,fexin,ibilex,ibrexin,inphalex,karilexina,kefalospes,keflet,keflex,kefolan,keforal,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,loisine,lonflex,lopilexin,losporal,madlexin,maksipor,mamalexin,mamlexin,medolexin,medoxine,neokef,neolexina,noveol,novolexin,nufex,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixine,pectril,prindex,pyassan,rilexine,roceph,rogevil,sanaxin,sartosona,sencephalin,sepexin,servicef,servispor,sialexin,sinthecillin,sintolexyn,sporicef,sporidex,syncl,syncle,synecl,taicelexin,tepaxin,theratrex,tokiolexin,uphalexin,viosporine,voxxim,winlex,zabytrex,zozarine</t>
         </is>
       </c>
       <c r="J58">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
+          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,sasperin,sefacin,verolgin,vioviantine</t>
         </is>
       </c>
       <c r="J59" t="e">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ancef,atirin,biazolina,cefabiozim,cefacidal,cefalomicina,cefamedin,cefamezin,cefazil,cefazina,cefazolina,cefazoline,cefazolinsalt,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,gramaxin,kefzol,lampocef,liviclina,neofazol,oprea,recef,totacef,zolicef,zolin,zolisint</t>
+          <t>ancef,atirin,biazolina,cefabiozim,cefacidal,cefalomicina,cefamedin,cefamezin,cefazil,cefazina,cefazolina,cefazoline,cefazolinsalt,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,gramaxin,kefzol,lampocef,liviclina,neofazol,oprea,recef,totacef,zolicef,zolisint</t>
         </is>
       </c>
       <c r="J65" t="e">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>anticefotaxime,cefotax,cefotaxim,cefotaxima,cefotaximesalt,cefotaximsalt,cefotaximum,cephotaxim,cephotaxime,claforan,kefotex,omnatax,pretor,ralopar,taxim,tolycar,tolycor,zariviz</t>
+          <t>anticefotaxime,cefotax,cefotaxim,cefotaxima,cefotaximesalt,cefotaximsalt,cefotaximum,cephotaxim,cephotaxime,claforan,kefotex,omnatax,pretor,ralopar,tolycar,tolycor,zariviz</t>
         </is>
       </c>
       <c r="J95" t="e">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>cefpiramida,cefpiramidesalt,cefpiramido,cefpiramidum,sepatren,suncefal,tamicin</t>
+          <t>cefpiramida,cefpiramidesalt,cefpiramido,cefpiramidum,sepatren,suncefal</t>
         </is>
       </c>
       <c r="J107" t="e">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>ceftazimide,ceptaz,fortam,fortaz,fortum,glazidim,kefazim,modacin,pentacef,tazicef,tazidime,tizime,zidim</t>
+          <t>ceftazimide,ceptaz,fortam,fortaz,fortum,glazidim,kefazim,modacin,pentacef,tazicef,tizime</t>
         </is>
       </c>
       <c r="J119" t="e">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>bioracef,ceftin,cefurax,cefuroximaxetil,celocid,cepazine,cethixim,cetoxil,coliofossim,curocef,elobact,furoxime,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinat,zoref</t>
+          <t>bioracef,ceftin,cefurax,cefuroximaxetil,celocid,cepazine,cethixim,cetoxil,coliofossim,curocef,elobact,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinat,zoref</t>
         </is>
       </c>
       <c r="J135" t="e">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocide,chlorocin,chlorocol,chlorofair,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chlorovules,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextramycin,dextromycetin,doctamicina,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,intramycetin,isicetin,ismicetina,isophenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromisan,loromisin,mastiphen,maybridge,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,petnamycetin,quemicetina,rivomycin,romphenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,viceton</t>
+          <t>alficetyn,ambofen,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocide,chlorocin,chlorocol,chlorofair,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chlorovules,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextramycin,dextromycetin,doctamicina,econochlor,embacetin,emetren,enteromycetin,erbaplast,ertilen,farmicetina,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,intramycetin,isicetin,ismicetina,isophenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromisan,loromisin,mastiphen,maybridge,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,petnamycetin,quemicetina,rivomycin,romphenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,viceton</t>
         </is>
       </c>
       <c r="J140">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>acronize,alexomycin,aueromycin,aureocarmyl,aureociclina,aureocina,aureocycline,aureomycin,aureomykoin,aurofac,auxeomycin,biomitsin,biomycin,chlormax,chlorotetracycline,chlortetracyclinum,chrysomykine,clorocipan,clortetraciclina,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,duomycin,elkamicina,flamycin,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,pennchlor,perciclina,periciclina,sumaclina,tetra,uromycin,veraciclina</t>
+          <t>acronize,alexomycin,aueromycin,aureocarmyl,aureociclina,aureocina,aureocycline,aureomycin,aureomykoin,aurofac,auxeomycin,biomitsin,biomycin,chlormax,chlorotetracycline,chlortetracyclinum,chrysomykine,clorocipan,clortetraciclina,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,duomycin,elkamicina,flamycin,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,pennchlor,perciclina,periciclina,sumaclina,uromycin,veraciclina</t>
         </is>
       </c>
       <c r="J141">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>alcipro,bacquinor,baflox,belmacina,bernoflox,catex,cenin,ceprimax,cetraxal,ciflan,ciflosin,ciflox,cifloxin,cilab,cilox,ciloxan,cipad,ciplus,ciprecu,ciprenit,ciprine,ciprinol,cipro,ciprobay,ciprocinal,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprofur,ciprogis,ciproktan,ciprolin,ciprolon,cipromycin,cipronex,ciprooxacin,cipropol,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citeral,citopcin,cixan,corsacin,cunesin,cycin,cyprobay,cyproxan,disfabac,felixene,fimoflox,flociprin,floxacipron,flunas,globuce,inkamil,ipiflox,italnik,keefloxin,linhaliq,loxacid,loxan,lypro,megaflox,microgan,nixin,novidat,novoquin,ofitin,oftacilox,ophaflox,otiprio,phaproxin,piprol,plenolyt,probiox,proflaxin,proksi,proquin,proxacin,quinoflox,quinolid,quintor,quipro,rancif,renator,roflazin,roxytal,sepcen,septicide,septocipro,siprogut,sophixin,spitacin,strox,suiflox,superocin,supraflox,uritent,utiminx,velmonit,zumaflox</t>
+          <t>alcipro,bacquinor,baflox,belmacina,bernoflox,catex,cenin,ceprimax,cetraxal,ciflan,ciflosin,cifloxin,cilab,cilox,ciloxan,cipad,ciplus,ciprecu,ciprenit,ciprine,ciprinol,cipro,ciprobay,ciprocinal,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprofur,ciprogis,ciproktan,ciprolin,ciprolon,cipromycin,cipronex,ciprooxacin,cipropol,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citeral,citopcin,cixan,corsacin,cunesin,cycin,cyprobay,cyproxan,disfabac,felixene,fimoflox,flociprin,floxacipron,flunas,globuce,inkamil,ipiflox,italnik,keefloxin,linhaliq,loxacid,loxan,lypro,megaflox,microgan,nixin,novidat,novoquin,ofitin,oftacilox,ophaflox,otiprio,phaproxin,piprol,plenolyt,probiox,proflaxin,proksi,proquin,proxacin,quinoflox,quinolid,quintor,quipro,rancif,renator,roflazin,roxytal,sepcen,septicide,septocipro,siprogut,sophixin,spitacin,strox,suiflox,superocin,supraflox,uritent,utiminx,velmonit,zumaflox</t>
         </is>
       </c>
       <c r="J145">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>abbotic,abboticine,astromen,biaxin,bicrolid,bristamycin,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycine,clarithromycinum,claritromicina,clarosip,clathromycin,crixan,cyllid,cyllind,eratrex,esinol,ethril,fromilid,gallimycin,helas,heliclar,klabax,klacid,klaciped,klaricid,klarid,klarin,kofron,mabicrol,macladin,maclar,mavid,meberyt,pediamycin,qidmycin,veclam,wyamycin,zeclar</t>
+          <t>abbotic,abboticine,astromen,biaxin,bicrolid,bristamycin,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycine,clarithromycinum,claritromicina,clarosip,clathromycin,crixan,cyllid,cyllind,eratrex,esinol,fromilid,gallimycin,helas,heliclar,klabax,klacid,klaciped,klaricid,klarid,klarin,kofron,mabicrol,macladin,maclar,mavid,meberyt,pediamycin,qidmycin,veclam,wyamycin,zeclar</t>
         </is>
       </c>
       <c r="J149">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>alevazol,bisphenyl,canesten,canestene,canestine,canifug,chlotrimazole,clomatin,clotrimaderm,clotrimazol,clotrimazolum,coltrimazole,cutistad,diphenylmethane,empecid,esparol,femmesil,footlogix,fortinia,gynix,imidazole,jidesheng,klotrimazole,lakesia,lombazol,lombazole,lombazolum,lotrimax,lotrimin,monobaycuten,mycelax,mycelex,mycofug,mycosporin,mykosporin,nalbix,otomax,pedesil,pedisafe,rimazole,ringworm,stiemazol,tibatin,trimysten,trivagizole</t>
+          <t>alevazol,bisphenyl,canesten,canestene,canestine,canifug,chlotrimazole,clomatin,clotrimaderm,clotrimazol,clotrimazolum,coltrimazole,cutistad,diphenylmethane,empecid,esparol,femmesil,footlogix,fortinia,gynix,imidazole,jidesheng,klotrimazole,lakesia,lombazol,lombazole,lombazolum,lotrimax,lotrimin,monobaycuten,mycelax,mycelex,mycofug,mycosporin,mykosporin,nalbix,otomax,pedesil,pedisafe,ringworm,stiemazol,tibatin,trimysten,trivagizole</t>
         </is>
       </c>
       <c r="J158" t="e">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>ankerbin,austrastaph,biocloxin,brispen,chloroxacillin,ciclex,clocil,clossacillina,cloxacilina,cloxacillinanhydrous,cloxacilline,cloxacillinsalt,cloxacillinum,cloxapen,constaphyl,dariclox,dichlorstapenor,diclocil,dicloxacillinhydrate,diflor,digloxilline,dycill,dynapen,ekvacillin,gelstaph,novapen,noxaben,orbenin,pathocil,stampen,staphybiotic,syntarpen,syntarpensalt,tegopen</t>
+          <t>ankerbin,austrastaph,biocloxin,brispen,chloroxacillin,ciclex,clocil,clossacillina,cloxacilina,cloxacillinanhydrous,cloxacilline,cloxacillinsalt,cloxacillinum,cloxapen,constaphyl,dariclox,dichlorstapenor,diclocil,dicloxacillinhydrate,diflor,digloxilline,dynapen,ekvacillin,gelstaph,novapen,noxaben,orbenin,pathocil,stampen,staphybiotic,syntarpen,syntarpensalt,tegopen</t>
         </is>
       </c>
       <c r="J159">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>cicloserina,closerin,closina,cyclorin,cycloserin,cycloserinum,farmiserina,levcicloserina,levcycloserine,levcycloserinum,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
+          <t>cicloserina,closina,cyclorin,cycloserin,cycloserinum,farmiserina,levcicloserina,levcycloserine,levcycloserinum,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,wasserina</t>
         </is>
       </c>
       <c r="J162">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>abbocin,alamycin,aquacycline,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,deoxymykoin,dossiciclina,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycyclinum,doxylin,doxysol,doxytetracycline,elinton,engemycin,hydrocyclin,imperacin,intaloxin,investin,jenacyclin,liquachel,liviatin,macodyn,mepatar,microdox,mondoxyne,monodox,morgidox,ocudox,okebo,oracea,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetral,oxytetrin,oxytracyl,oxyvet,stecsolin,supracyclin,terraject,terramycin,toxinal,unimycin,vendarcin,vibramycin,vibramycine,vivox,zenavod</t>
+          <t>abbocin,alamycin,aquacycline,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,deoxymykoin,dossiciclina,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycyclinum,doxylin,doxysol,doxytetracycline,elinton,engemycin,hydrocyclin,imperacin,intaloxin,investin,jenacyclin,liquachel,liviatin,macodyn,mepatar,microdox,mondoxyne,monodox,morgidox,ocudox,okebo,oracea,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxybiocycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetral,oxytetrin,oxytracyl,oxyvet,stecsolin,supracyclin,terraject,terramycin,toxinal,unimycin,vendarcin,vibramycin,vibramycine,vivox,zenavod</t>
         </is>
       </c>
       <c r="J175">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,econazol,econazolum,ecostatin,ekonazole,enilconazol,enilconazole,eniloconazol,fecundal,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,magnate,spectazole</t>
+          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,econazolum,ecostatin,ekonazole,enilconazol,enilconazole,eniloconazol,fecundal,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,magnate,spectazole</t>
         </is>
       </c>
       <c r="J176" t="e">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>abboticin,abomacetin,acneryne,acnesol,aknemycin,aknin,benzamycin,derimer,deripil,dotycin,dumotrycin,emgel,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erysafe,erytab,erythro,erythroderm,erythrogran,erythroguent,erythromast,erythromid,erythromycine,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,inderm,latotryd,lederpax,mephamycin,mercina,oftamolets,pantoderm,pantodrin,pantomicina,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,spotex,staticin,stiemicyn,stiemycin,tiprocin,torlamicina,wemid</t>
+          <t>abboticin,abomacetin,acneryne,acnesol,aknemycin,aknin,benzamycin,derimer,deripil,dotycin,dumotrycin,emgel,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,erycen,erycette,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erysafe,erytab,erythro,erythroderm,erythrogran,erythroguent,erythromast,erythromid,erythromycine,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,inderm,latotryd,lederpax,mephamycin,mercina,oftamolets,pantoderm,pantodrin,pantomicina,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,sansac,spotex,staticin,stiemicyn,stiemycin,tiprocin,torlamicina,wemid</t>
         </is>
       </c>
       <c r="J186">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>alflucoz,alkanazole,baten,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,fluzon,forcan,fuconal,fungata,loitin,mutum,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zemyc,zoltec,zonal</t>
+          <t>alflucoz,alkanazole,baten,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,fluzon,forcan,fuconal,fungata,loitin,mutum,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zemyc,zoltec,zonal</t>
         </is>
       </c>
       <c r="J200">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furanzolidone,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidonum,furazolum,furazon,furidon,furmethoxadone,furovag,furox,furoxal,furoxane,furoxon,furoxone,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofuradoxon,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
+          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furanzolidone,furaxon,furaxone,furazolidine,furazolidon,furazolidona,furazolidonum,furazolum,furidon,furmethoxadone,furovag,furoxal,furoxane,furoxon,furoxone,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofuradoxon,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
         </is>
       </c>
       <c r="J209" t="e">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>flucidin,fucidate,fucidina,fucidine,fucithalmic,fusidate,fusidicacid,fusidin,fusidine,ramycin,taksta</t>
+          <t>flucidin,fucidate,fucidina,fucidine,fucithalmic,fusidate,fusidicacid,fusidin,fusidine,taksta</t>
         </is>
       </c>
       <c r="J210">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>abdizide,acetylisoniazide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azuren,cedin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,dinocrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydra,hydrazid,hyozid,hyzyd,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,mayambutol,mybasan,neoteben,neoxin,neumandin,nevin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nitebannsc,nydrazid,nyscozid,pelazid,percin,phthisen,preparation,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,soniazid,stanozide,tebecid,tebenic,tebexin,tebilon,tebos,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisin,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,tyvid,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
+          <t>abdizide,acetylisoniazide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azuren,cedin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,dinocrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydra,hydrazid,hyozid,hyzyd,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,mayambutol,mybasan,neoteben,neoxin,neumandin,nevin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nitebannsc,nydrazid,nyscozid,pelazid,percin,phthisen,preparation,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,tebos,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisin,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,tyvid,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
         </is>
       </c>
       <c r="J232">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>candistat,canditral,cladosal,fungitraxx,intraconazole,itrac,itraconazol,itraconazolo,itraconazolum,itraconzaole,itrafungol,itralek,itrizole,lozanoc,onmel,oriconazole,sempera,sporamelt,sporanox,sporonox,traconal,triasporin</t>
+          <t>candistat,canditral,cladosal,fungitraxx,intraconazole,itraconazol,itraconazolo,itraconazolum,itraconzaole,itrafungol,itralek,itrizole,lozanoc,onmel,sempera,sporamelt,sporanox,sporonox,traconal,triasporin</t>
         </is>
       </c>
       <c r="J234">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aeroquin,cravit,dextrofloxacin,dynaquin,elequine,floxacin,iquix,levaquin,levofiexacin,levofloxacine,levofloxacino,levofloxacinum,loxof,ofloxcacin,oftaquix,quinsair,quixin,tavanic,unibiotic,venaxan</t>
+          <t>aeroquin,cravit,dextrofloxacin,dynaquin,elequine,iquix,levaquin,levofiexacin,levofloxacine,levofloxacino,levofloxacinum,loxof,ofloxcacin,oftaquix,quinsair,quixin,tavanic,unibiotic,venaxan</t>
         </is>
       </c>
       <c r="J246">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>amygdalate,mandelsaeure,methyl,paramandelate,phenylglycolate,phenylhydroxyacetate,uromaline</t>
+          <t>amygdalate,mandelsaeure,paramandelate,phenylglycolate,phenylhydroxyacetate,uromaline</t>
         </is>
       </c>
       <c r="J256">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>acromona,anagiardil,arilin,atrivyl,bexon,clont,danizol,deflamon,donnan,efloran,elyzol,entizol,eumin,flagemona,flagesol,flagil,flagyl,flazol,flegyl,florazole,fossyol,giatricol,gineflavir,givagil,hydroxydimetridazole,hydroxymetronidazole,izoklion,klion,klont,mepagyl,meronidal,methronidazole,metric,metrolag,metrolyl,metromidol,metronidaz,metronidazol,metronidazolo,metronidazolum,metroplex,metrotop,mexibol,monagyl,monasin,nalox,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosaced,rosased,sanatrichom,satric,takimetol,trichazol,trichex,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
+          <t>acromona,anagiardil,arilin,atrivyl,bexon,clont,danizol,deflamon,donnan,efloran,elyzol,entizol,eumin,flagemona,flagesol,flagil,flagyl,flazol,flegyl,florazole,fossyol,giatricol,gineflavir,givagil,hydroxydimetridazole,hydroxymetronidazole,izoklion,klion,klont,mepagyl,meronidal,metric,metrolag,metrolyl,metromidol,metronidazolo,metronidazolum,metroplex,metrotop,mexibol,monagyl,monasin,nalox,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosaced,rosased,sanatrichom,satric,takimetol,trichazol,trichex,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
         </is>
       </c>
       <c r="J271">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>macropen,madecacine,medemycin,midecamicina,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin</t>
+          <t>macropen,madecacine,medemycin,midecamicina,midecamycine,midecamycinum,midecin,momicine,myoxam,normicina,rubimycin</t>
         </is>
       </c>
       <c r="J277">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>acnez,arestin,borymycin,dynacin,lederderm,minociclina,minocin,minocline,minocyclin,minocyclinum,minocyn,minomax,minomycin,minoz,mynocine,periocline,solodyn,vectrin,ximino</t>
+          <t>acnez,arestin,borymycin,dynacin,lederderm,minociclina,minocin,minocline,minocyclin,minocyclinum,minocyn,minomax,minomycin,mynocine,periocline,solodyn,vectrin,ximino</t>
         </is>
       </c>
       <c r="J279">
@@ -18790,7 +18790,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fuamed,furabid,furachel,furadantin,furadantine,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,gerofuran,ituran,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifuraden,nifuradene,nifuradeno,nifuradenum,nifuradine,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,oxafuradene,oxafurandene,oxifuradene,oxyfuradene,parfuran,phenurin,renafur,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
+          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fuamed,furabid,furachel,furadantin,furadantine,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furalan,furaloid,furantoina,furatoin,furedan,furina,furobactina,furodantin,gerofuran,ituran,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifuraden,nifuradene,nifuradeno,nifuradenum,nifuradine,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,oxafuradene,oxafurandene,oxifuradene,oxyfuradene,parfuran,phenurin,renafur,siraliden,trantoin,uerineks,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
         </is>
       </c>
       <c r="J299">
@@ -18850,7 +18850,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazone,furazyme,furesol,furosem,fuvacillin,hemofuran,hydrazinecarboxamide,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nefco,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,rivopon,sanfuran,semioxamazide,vabrocid,vadrocid,yatrocin</t>
+          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazyme,furesol,furosem,fuvacillin,hemofuran,hydrazinecarboxamide,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nefco,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,rivopon,sanfuran,semioxamazide,vabrocid,vadrocid,yatrocin</t>
         </is>
       </c>
       <c r="J300" t="e">
@@ -18976,7 +18976,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>baccidal,barazan,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,noflo,nolicin,noracin,noraxin,norflo,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,sebercim,uroxacin,utinor,zoroxin</t>
+          <t>baccidal,barazan,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,nolicin,noracin,noraxin,norflo,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,sebercim,uroxacin,utinor,zoroxin</t>
         </is>
       </c>
       <c r="J302">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>albadry,albamix,albamycin,biotexin,cardelmycin,cardelmycinsalt,cathocin,cathomycin,inabiocin,inamycin,novobiocina,novobiocine,novobiocinsalt,novobiocinum,robiocina,sirbiocina,spheromycin,stilbiocina,streptonivicin,streptonivicinsalt,vulcamicina,vulcamycin,vulkamycin</t>
+          <t>albadry,albamix,albamycin,biotexin,cardelmycin,cardelmycinsalt,cathocin,cathomycin,inabiocin,novobiocina,novobiocine,novobiocinsalt,novobiocinum,robiocina,sirbiocina,spheromycin,stilbiocina,streptonivicin,streptonivicinsalt,vulcamicina,vulcamycin,vulkamycin</t>
         </is>
       </c>
       <c r="J307" t="e">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>biofanal,diastatin,herniocid,moronal,myconystatin,mycostatin,mykostatyna,nilstat,nistatin,nistatina,nyotran,nystan,nystatyna,nystavescent,nystex,stamycin</t>
+          <t>biofanal,diastatin,herniocid,moronal,myconystatin,mycostatin,mykostatyna,nilstat,nistatin,nistatina,nyotran,nystan,nystatyna,nystavescent,nystex</t>
         </is>
       </c>
       <c r="J308">
@@ -19398,7 +19398,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>exocin,exocine,flobacin,floxil,floxin,monoflocet,ocuflox,oflocet,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxaxin,oxaldin,tarivid,visiren,zanocin</t>
+          <t>exocin,exocine,flobacin,floxil,floxin,monoflocet,oflocet,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxaxin,oxaldin,tarivid,visiren,zanocin</t>
         </is>
       </c>
       <c r="J309">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aflukin,auriquin,biquinate,chinidin,chinidine,chinimetten,chinin,chinine,conchinin,conchinine,conquinine,dentojel,dihydrochinidin,dihydroquinidine,dihydroquinine,hydroconchinine,hydroconquinine,hydroquinidine,kinidin,numoquin,optochine,optoquine,pitayine,qualaquin,quinaglute,quine,quinicardine,quinidex,quinidine,quiniduran,quinindine,quinine,quinineanhydrous,quinora,quinsan,rezquin</t>
+          <t>aflukin,auriquin,biquinate,chinidin,chinidine,chinimetten,chinin,chinine,conchinin,conchinine,conquinine,dentojel,dihydrochinidin,dihydroquinidine,dihydroquinine,hydroconchinine,hydroconquinine,hydroquinidine,kinidin,numoquin,optochine,optoquine,pitayine,qualaquin,quinaglute,quinicardine,quinidex,quinidine,quiniduran,quinindine,quinine,quinineanhydrous,quinora,quinsan,rezquin</t>
         </is>
       </c>
       <c r="J313" t="e">
@@ -19888,7 +19888,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>levornidazole,madelen,ornidal,ornidazol,ornidazolum,tiberal</t>
+          <t>levornidazole,madelen,ornidal,ornidazolum,tiberal</t>
         </is>
       </c>
       <c r="J317">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>deblaston,dolcol,filtrax,karunomazin,memento,nuril,palin,pipedac,pipemid,pipemidate,pipemidic,pipemidicacid,pipram,pipurin,pyrido,tractur,uromidin,urosten,uroval</t>
+          <t>deblaston,dolcol,filtrax,karunomazin,memento,nuril,palin,pipedac,pipemid,pipemidate,pipemidic,pipemidicacid,pipram,pipurin,tractur,uromidin,urosten,uroval</t>
         </is>
       </c>
       <c r="J340">
@@ -21482,7 +21482,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>piptazobactam,tazobac,tazonam,zobactin,zosyn</t>
+          <t>piptazobactam,tazonam,zobactin,zosyn</t>
         </is>
       </c>
       <c r="J343" t="e">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>premafloxacine,premafloxacino,remafloxacin</t>
+          <t>premafloxacine,premafloxacino</t>
         </is>
       </c>
       <c r="J354" t="e">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aldinamid,aldinamide,eprazin,farmizina,isopas,novamid,pezetamid,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,pirazinecarboxamide,pyrafat,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamidum,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tisamid,unipyranamide,zinamide</t>
+          <t>aldinamid,aldinamide,eprazin,farmizina,isopas,novamid,pezetamid,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,pirazinecarboxamide,pyrafat,pyrazide,pyrazinamdie,pyrazinamidum,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tisamid,unipyranamide</t>
         </is>
       </c>
       <c r="J363">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>flagentyl,secnidal,secnidazol,secnidazolum,secnil,sindose,solosec</t>
+          <t>flagentyl,secnidal,secnidazolum,secnil,sindose,solosec</t>
         </is>
       </c>
       <c r="J393">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>adiazin,adiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazin,diazolone,diazovit,eskadiazine,flamazine,geben,liquadiazine,microsulfon,neazine,neotrizine,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver,silveramide,sliverex,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonsol,sulfose,sulphadiazine,terfonyl,theradiazine,thermazene,trifonamide,trisem,truozine</t>
+          <t>codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazolone,diazovit,eskadiazine,flamazine,geben,liquadiazine,microsulfon,neazine,neotrizine,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver,silveramide,sliverex,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonsol,sulfose,sulphadiazine,terfonyl,theradiazine,thermazene,trifonamide,trisem,truozine</t>
         </is>
       </c>
       <c r="J411">
@@ -26064,7 +26064,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,entusil,entusul,ganda,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazol,novazolo,novosaxazole,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxoxol,saxosozine,sodizole,solfafurazolo,sosol,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan</t>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,entusil,entusul,ganda,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazol,novazolo,novosaxazole,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxoxol,saxosozine,sodizole,solfafurazolo,sosol,soxamide,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan</t>
         </is>
       </c>
       <c r="J417">
@@ -26508,7 +26508,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aethazol,aethazolum,ayerlucil,berlophen,etazol,etazole,ethazole,famet,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizolum,lucosil,methazol,microsul,proklar,renasul,rufol,salimol,sethadil,solfametizolo,solfetidolo,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+          <t>aethazolum,ayerlucil,berlophen,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizolum,lucosil,microsul,proklar,renasul,rufol,salimol,sethadil,solfametizolo,solfetidolo,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
         </is>
       </c>
       <c r="J424">
@@ -26572,7 +26572,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
+          <t>septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulphisomezole,urobak</t>
         </is>
       </c>
       <c r="J425">
@@ -27872,7 +27872,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>enmetazobactam,exblifep,tazobactamsalt,tazobactamum,tazobactum</t>
+          <t>exblifep,tazobactamsalt,tazobactamum,tazobactum</t>
         </is>
       </c>
       <c r="J446" t="e">
@@ -28620,7 +28620,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>abramycin,abricycline,agromicina,ambramicina,ambramycin,amycin,biocycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,democracin,deschlorobiomycin,economycin,hostacyclin,lexacycline,limecycline,liquamycin,mericycline,micycline,neocycline,omegamycin,orlycycline,panmycin,purocyclina,roviciclina,solvocin,tetrabon,tetraciclina,tetracycl,tetracyclin,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetraverine,tetrazyklin,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum</t>
+          <t>abramycin,abricycline,agromicina,ambramicina,ambramycin,biocycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,democracin,deschlorobiomycin,economycin,hostacyclin,lexacycline,limecycline,liquamycin,mericycline,micycline,neocycline,omegamycin,orlycycline,panmycin,purocyclina,roviciclina,solvocin,tetrabon,tetraciclina,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetraverine,tetrazyklin,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum</t>
         </is>
       </c>
       <c r="J458">
@@ -29170,7 +29170,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>ticar,ticarcilina,ticarcilline,ticarcillinum,ticillin,timentin</t>
+          <t>ticar,ticarcilina,ticarcilline,ticarcillinum,timentin</t>
         </is>
       </c>
       <c r="J467" t="e">
@@ -29594,7 +29594,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>amtiba,bioshik,fasigin,fasigyn,glongyn,haisigyn,isotinidazole,pletil,protozol,simplotan,sorquetan,symplotan,tindamax,tindazole,tinidazol,tinidazolum,tricolam,trimonase</t>
+          <t>amtiba,bioshik,fasigin,fasigyn,glongyn,haisigyn,isotinidazole,pletil,protozol,simplotan,sorquetan,symplotan,tindamax,tindazole,tinidazolum,tricolam,trimonase</t>
         </is>
       </c>
       <c r="J474">
@@ -29660,7 +29660,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aethoksid,aethoxyd,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,ethoxyd,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
+          <t>aethoksid,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
         </is>
       </c>
       <c r="J475">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aktob,bethkis,distobram,gotabiotic,kitabis,nebcin,nebicin,nebramycin,obramycin,tenebrimycin,tenemycin,tobacin,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrex</t>
+          <t>aktob,bethkis,distobram,gotabiotic,kitabis,nebcin,nebicin,nebramycin,tenebrimycin,tenemycin,tobacin,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrex</t>
         </is>
       </c>
       <c r="J479" t="e">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>abaprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacin,bacta,bacterial,bacticel,bactifor,bactoprim,bactramin,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,futin,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lastrim,lescot,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,pancidim,proloprim,protrin,purbal,resprim,roubac,roubal,salvatrim,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,toprim,trimethioprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexol,trimezol,trimogal,trimono,trimopan,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+          <t>abaprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacin,bacterial,bacticel,bactifor,bactoprim,bactramin,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,futin,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lastrim,lescot,monoprim,monotrim,monotrimin,novotrimel,omstat,pancidim,proloprim,protrin,purbal,resprim,roubac,roubal,salvatrim,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,trimethioprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexol,trimezol,trimogal,trimono,trimopan,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
         </is>
       </c>
       <c r="J482">
@@ -30566,7 +30566,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>ulifloxacin</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J490" t="e">

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -373,7 +373,7 @@
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="e">
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F3" t="e">
@@ -588,7 +588,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F4" t="e">
@@ -710,7 +710,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D06AX12,J01GB06,S01AA21</t>
+          <t>D06AX12,J01GB06,QD06AX12,QJ01GB06,QS01AA21,S01AA21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F7" t="e">
@@ -832,7 +832,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D01AE16</t>
+          <t>D01AE16,QD01AE16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J01CA04</t>
+          <t>J01CA04,QG51AA03,QJ01CA04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J01CR02</t>
+          <t>J01CR02,QJ01CR02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01CR02,QJ01CR02</t>
         </is>
       </c>
       <c r="F11" t="e">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A01AB04,A07AA07,G01AA03,J02AA01</t>
+          <t>A01AB04,A07AA07,G01AA03,J02AA01,QA01AB04,QA07AA07,QG01AA03,QJ02AA01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F13" t="e">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J01CA01,S01AA19</t>
+          <t>J01CA01,QJ01CA01,QJ51CA01,QS01AA19,S01AA19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>J01CR01</t>
+          <t>J01CR01,QJ01CR01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J02AX06</t>
+          <t>J02AX06,QJ02AX06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F18" t="e">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J01GB12</t>
+          <t>J01GB12,QJ01GB12</t>
         </is>
       </c>
       <c r="F20" t="e">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J01CA19</t>
+          <t>J01CA19,QJ01CA19</t>
         </is>
       </c>
       <c r="F21" t="e">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F22" t="e">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F23" t="e">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F25" t="e">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>J01CE04</t>
+          <t>J01CE04,QJ01CE04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>J01FA10,S01AA26</t>
+          <t>J01FA10,QJ01FA10,QS01AA26,S01AA26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>J01RA07</t>
+          <t/>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J01CA09</t>
+          <t>J01CA09,QJ01CA09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>J01DF01</t>
+          <t>J01DF01,QJ01DF01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DF51,QJ01DF51</t>
         </is>
       </c>
       <c r="F31" t="e">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DF51,QJ01DF51</t>
         </is>
       </c>
       <c r="F32" t="e">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>J01CA06</t>
+          <t>J01CA06,QJ01CA06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D06AX05,J01XX10,R02AB04,S01AA32</t>
+          <t>D06AX05,J01XX10,QA07AA93,QD06AX05,QJ01XX10,QR02AB04,QS01AA32,R02AB04,S01AA32</t>
         </is>
       </c>
       <c r="F34" t="e">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>J04AK05</t>
+          <t>J04AK05,QJ04AK05</t>
         </is>
       </c>
       <c r="F35" t="e">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>J01GB13</t>
+          <t>J01GB13,QJ01GB13</t>
         </is>
       </c>
       <c r="F36" t="e">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>J01CE08</t>
+          <t>J01CE08,QJ01CE08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>J01CE10</t>
+          <t>J01CE10,QJ01CE10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>J01CE01,S01AA14</t>
+          <t>J01CE01,QJ01CE01,QJ51CE01,QS01AA14,S01AA14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F40" t="e">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S01AE08</t>
+          <t>QS01AE08,S01AE08</t>
         </is>
       </c>
       <c r="F41" t="e">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F42" t="e">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>J01DH05</t>
+          <t>J01DH05,QJ01DH05</t>
         </is>
       </c>
       <c r="F43" t="e">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F44" t="e">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>L01DC01</t>
+          <t>L01DC01,QL01DC01</t>
         </is>
       </c>
       <c r="F45" t="e">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>J01EA02</t>
+          <t>J01EA02,QJ01EA02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G01AF15</t>
+          <t>G01AF15,QG01AF15</t>
         </is>
       </c>
       <c r="F47" t="e">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F48" t="e">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>J04AA03</t>
+          <t>J04AA03,QJ04AA03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>J04AB30</t>
+          <t>J04AB30,QJ04AB30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>J01CA03</t>
+          <t>J01CA03,QJ01CA03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>J01CA05</t>
+          <t>J01CA05,QJ01CA05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>J01DF02</t>
+          <t>J01DF02,QJ01DF02</t>
         </is>
       </c>
       <c r="F53" t="e">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>J02AX04</t>
+          <t>J02AX04,QJ02AX04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>J01DB10</t>
+          <t>J01DB10,QJ01DB10,QJ51DB10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>J01DC04</t>
+          <t>J01DC04,QJ01DC04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>J01DB05</t>
+          <t>J01DB05,QJ01DB05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>J01DB01</t>
+          <t>J01DB01,QJ01DB01,QJ51DB01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>J01DB02</t>
+          <t>J01DB02,QJ01DB02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>J01DB03</t>
+          <t>J01DB03,QJ01DB03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>J01DC03</t>
+          <t>J01DC03,QJ01DC03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>J01DB08</t>
+          <t>J01DB08,QG51AA05,QJ01DB08,QJ51DB08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>J01DB07</t>
+          <t>J01DB07,QJ01DB07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>J01DB06</t>
+          <t>J01DB06,QJ01DB06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>J01DB04</t>
+          <t>J01DB04,QJ01DB04,QJ51DB04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>J01DC13</t>
+          <t>J01DC13,QJ01DC13</t>
         </is>
       </c>
       <c r="F66" t="e">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>J01DD17</t>
+          <t>J01DD17,QJ01DD17</t>
         </is>
       </c>
       <c r="F67" t="e">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F68" t="e">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>J01DD15</t>
+          <t>J01DD15,QJ01DD15</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>J01DD16</t>
+          <t>J01DD16,QJ01DD16</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F71" t="e">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>J01DE01</t>
+          <t>J01DE01,QJ01DE01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>J01RA06</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F74" t="e">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F75" t="e">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F76" t="e">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F77" t="e">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DE51,QJ01DE51</t>
         </is>
       </c>
       <c r="F78" t="e">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>J01DD10</t>
+          <t>J01DD10,QJ01DD10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F80" t="e">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F81" t="e">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F82" t="e">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>J01DI04</t>
+          <t>J01DI04,QJ01DI04</t>
         </is>
       </c>
       <c r="F83" t="e">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>J01DD08</t>
+          <t>J01DD08,QJ01DD08</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>J01RA15</t>
+          <t>J01DD58,QJ01DD58</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>J01DD05,S01AA31,S02AA18</t>
+          <t>J01DD05,QJ01DD05,QS01AA31,QS02AA18,S01AA31,S02AA18</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>J01DC09</t>
+          <t>J01DC09,QJ01DC09</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>J01DC12</t>
+          <t>J01DC12,QJ01DC12</t>
         </is>
       </c>
       <c r="F88" t="e">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>J01DD09</t>
+          <t>J01DD09,QJ01DD09</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>J01DC06</t>
+          <t>J01DC06,QJ01DC06</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>J01DD12</t>
+          <t>J01DD12,QJ01DD12,QJ51DD12</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>J01DD62</t>
+          <t>J01DD62,QJ01DD62</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>J01DC11</t>
+          <t>J01DC11,QJ01DC11</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F94" t="e">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>J01DD01</t>
+          <t>J01DD01,QJ01DD01</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F96" t="e">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>J01DD51</t>
+          <t>J01DD51,QJ01DD51</t>
         </is>
       </c>
       <c r="F97" t="e">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DD51,QJ01DD51</t>
         </is>
       </c>
       <c r="F98" t="e">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>J01DC05</t>
+          <t>J01DC05,QJ01DC05</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>J01DC07</t>
+          <t>J01DC07,QJ01DC07</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F101" t="e">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>J01DC01</t>
+          <t>J01DC01,QJ01DC01</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F104" t="e">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>J01DE03</t>
+          <t>J01DE03,QJ01DE03</t>
         </is>
       </c>
       <c r="F105" t="e">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F106" t="e">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>J01DD11</t>
+          <t>J01DD11,QJ01DD11</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>J01DE02</t>
+          <t>J01DE02,QJ01DE02</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>J01DD13</t>
+          <t>J01DD13,QJ01DD13</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F110" t="e">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DD64,QJ01DD64</t>
         </is>
       </c>
       <c r="F111" t="e">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>J01DC10</t>
+          <t>J01DC10,QJ01DC10</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>J01DB11</t>
+          <t>J01DB11,QJ01DB11</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>J01DD03</t>
+          <t>J01DD03,QJ01DD03</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F116" t="e">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>J01DI02</t>
+          <t/>
         </is>
       </c>
       <c r="F117" t="e">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F118" t="e">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>J01DD02</t>
+          <t>J01DD02,QJ01DD02</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DD52,QJ01DD52</t>
         </is>
       </c>
       <c r="F120" t="e">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>J01DD52</t>
+          <t>J01DD52,QJ01DD52</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>J01DD18</t>
+          <t>J01DD18,QJ01DD18</t>
         </is>
       </c>
       <c r="F122" t="e">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F123" t="e">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>J01DB12</t>
+          <t>J01DB12,QJ01DB12</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>J01DD14</t>
+          <t>J01DD14,QJ01DD14</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>J01DD07</t>
+          <t>J01DD07,QJ01DD07</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F128" t="e">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F129" t="e">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>J01DI01</t>
+          <t>J01DI01,QJ01DI01</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>J01DI54</t>
+          <t>J01DI54,QJ01DI54</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>J01DD04</t>
+          <t>J01DD04,QJ01DD04</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>J01DD63</t>
+          <t>J01DD63,QJ01DD63</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>J01DC02,S01AA27</t>
+          <t>J01DC02,QJ01DC02,QJ51DC02,QS01AA27,S01AA27</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F135" t="e">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>J01RA03</t>
+          <t>J01DC52,QJ01DC52</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F137" t="e">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>J01DB09</t>
+          <t/>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F139" t="e">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>D06AX02,D10AF03,G01AA05,J01BA01,S01AA01,S02AA01,S03AA08</t>
+          <t>D06AX02,D10AF03,G01AA05,J01BA01,QD06AX02,QD10AF03,QG01AA05,QJ01BA01,QJ51BA01,QS01AA01,QS02AA01,QS03AA08,S01AA01,S02AA01,S03AA08</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A01AB21,D06AA02,J01AA03,S01AA02</t>
+          <t>A01AB21,D06AA02,J01AA03,QA01AB21,QD06AA02,QG51AA08,QJ01AA03,QJ51AA03,QS01AA02,S01AA02</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F142" t="e">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>D01AE14,G01AX12</t>
+          <t>D01AE14,G01AX12,QD01AE14,QG01AX12</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>J01MB06</t>
+          <t>J01MB06,QJ01MB06</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>J01MA02,S01AE03,S02AA15,S03AA07</t>
+          <t>J01MA02,QJ01MA02,QS01AE03,QS02AA15,QS03AA07,S01AE03,S02AA15,S03AA07</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>J01RA10</t>
+          <t/>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>J01RA12</t>
+          <t/>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>J01RA11</t>
+          <t/>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>J01FA09</t>
+          <t>J01FA09,QJ01FA09</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F150" t="e">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F151" t="e">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>D10AF01,G01AA10,J01FF01</t>
+          <t>D10AF01,G01AA10,J01FF01,QD10AF01,QG01AA10,QJ01FF01</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F153" t="e">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>J04BA01</t>
+          <t>J04BA01,QJ04BA01</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>J01XX03</t>
+          <t>J01XX03,QJ01XX03</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>J01CE07</t>
+          <t>J01CE07,QJ01CE07</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>J01AA11</t>
+          <t>J01AA11,QJ01AA11</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A01AB18,D01AC01,G01AF02</t>
+          <t>A01AB18,D01AC01,G01AF02,QA01AB18,QD01AC01,QG01AF02,QJ02AB90</t>
         </is>
       </c>
       <c r="F158" t="e">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>J01CF02</t>
+          <t>J01CF02,QJ01CF02,QJ51CF02,QS01AA90</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A07AA10,J01XB01</t>
+          <t>A07AA10,J01XB01,QA07AA10,QJ01XB01,QJ51XB01</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F161" t="e">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>J04AB01</t>
+          <t>J04AB01,QJ04AB01</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>J01XA04</t>
+          <t>J01XA04,QJ01XA04</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>D10AX05,J04BA02</t>
+          <t>D10AX05,J04BA02,QD10AX05,QJ04BA02</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>J01XX09</t>
+          <t>J01XX09,QJ01XX09</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>J01MA23</t>
+          <t>J01MA23,QJ01MA23</t>
         </is>
       </c>
       <c r="F167" t="e">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>J04AK06</t>
+          <t>J04AK06,QJ04AK06</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>D06AA01,J01AA01</t>
+          <t>D06AA01,J01AA01,QD06AA01,QJ01AA01</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>J01GB09,S01AA29</t>
+          <t>J01GB09,QJ01GB09,QS01AA29,S01AA29</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>J01CF01</t>
+          <t>J01CF01,QJ01CF01,QJ51CF01</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>J01FA13</t>
+          <t>J01FA13,QJ01FA13</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>J01DH04</t>
+          <t>J01DH04,QJ01DH04</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A01AB22,J01AA02</t>
+          <t>A01AB22,J01AA02,QA01AB22,QJ01AA02</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>D01AC03,G01AF05</t>
+          <t>D01AC03,G01AF05,QD01AC03,QG01AF05</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F177" t="e">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>J01MA04</t>
+          <t>J01MA04,QJ01MA04</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>J04AB06</t>
+          <t>J04AB06,QJ04AB06</t>
         </is>
       </c>
       <c r="F180" t="e">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F181" t="e">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>J01CA07</t>
+          <t>J01CA07,QJ01CA07</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F183" t="e">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>J01AA13</t>
+          <t>J01AA13,QJ01AA13</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>J01DH03</t>
+          <t>J01DH03,QJ01DH03</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>D10AF02,J01FA01,S01AA17</t>
+          <t>D10AF02,J01FA01,QD10AF02,QJ01FA01,QJ51FA01,QS01AA17,S01AA17</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>J04AK02</t>
+          <t>J04AK02,QJ04AK02</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>J04AM03</t>
+          <t/>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>J04AD03</t>
+          <t>J04AD03,QJ04AD03</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -12118,7 +12118,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F191" t="e">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>J01DI03</t>
+          <t>J01DI03,QJ01DI03</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A07AA12</t>
+          <t>A07AA12,QA07AA12</t>
         </is>
       </c>
       <c r="F193" t="e">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F194" t="e">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F195" t="e">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>J01MA08</t>
+          <t>J01MA08,QJ01MA08</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>J01DC14</t>
+          <t>J01DC14,QJ01DC14</t>
         </is>
       </c>
       <c r="F197" t="e">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>J01CF05</t>
+          <t>J01CF05,QJ01CF05,QJ51CF05</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>D01AC15,J02AC01</t>
+          <t>D01AC15,J02AC01,QD01AC15,QJ02AC01</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -12732,7 +12732,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>D01AE21,J02AX01</t>
+          <t>D01AE21,J02AX01,QD01AE21,QJ02AX01</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>J01MB07</t>
+          <t>J01MB07,QJ01MB07</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>J01FA14</t>
+          <t>J01FA14,QJ01FA14</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F204" t="e">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>J01XX01,S02AA17</t>
+          <t>J01XX01,QJ01XX01,QS02AA17,S02AA17</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F206" t="e">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>D09AA01,R01AX08,S01AA07</t>
+          <t>D09AA01,QD09AA01,QJ01GB91,QR01AX08,QS01AA07,R01AX08,S01AA07</t>
         </is>
       </c>
       <c r="F207" t="e">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>J01XE03</t>
+          <t>J01XE03,QJ01XE03</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>G01AX06</t>
+          <t>G01AX06,QG01AX06,QJ01XE90</t>
         </is>
       </c>
       <c r="F209" t="e">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>D06AX01,D09AA02,J01XC01,S01AA13</t>
+          <t>D06AX01,D09AA02,J01XC01,QD06AX01,QD09AA02,QJ01XC01,QS01AA13,S01AA13</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>J01MA19</t>
+          <t>J01MA19,QJ01MA19</t>
         </is>
       </c>
       <c r="F212" t="e">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>J01MA16,S01AE06</t>
+          <t>J01MA16,QJ01MA16,QS01AE06,S01AE06</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>J01MA15</t>
+          <t>J01MA15,QJ01MA15</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>D06AX07,J01GB03,S01AA11,S02AA14,S03AA06</t>
+          <t>D06AX07,J01GB03,QA07AA91,QD06AX07,QG01AA91,QG51AA04,QJ01GB03,QJ51GB03,QS01AA11,QS02AA14,QS03AA06,S01AA11,S02AA14,S03AA06</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F216" t="e">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01XX13,QJ01XX13</t>
         </is>
       </c>
       <c r="F217" t="e">
@@ -13784,7 +13784,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>J01MA11</t>
+          <t>J01MA11,QJ01MA11</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>D01AA08,D01BA01</t>
+          <t>D01AA08,D01BA01,QD01AA08,QD01BA01</t>
         </is>
       </c>
       <c r="F219" t="e">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F220" t="e">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>D01AA03,G01AA06,J02AA02</t>
+          <t>D01AA03,G01AA06,J02AA02,QD01AA03,QG01AA06,QJ02AA02</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>J01CA18</t>
+          <t>J01CA18,QJ01CA18</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F223" t="e">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>J02AX07</t>
+          <t>J02AX07,QJ02AX07</t>
         </is>
       </c>
       <c r="F224" t="e">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>J01EA03</t>
+          <t>J01EA03,QJ01EA03</t>
         </is>
       </c>
       <c r="F225" t="e">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>J01DH51</t>
+          <t/>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F227" t="e">
@@ -14388,7 +14388,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>J01DH56</t>
+          <t/>
         </is>
       </c>
       <c r="F228" t="e">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>J02AC05</t>
+          <t>J02AC05,QJ02AC05</t>
         </is>
       </c>
       <c r="F229" t="e">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>J01GB11</t>
+          <t>J01GB11,QJ01GB11</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>D01AC05,G01AF07</t>
+          <t>D01AC05,G01AF07,QD01AC05,QG01AF07</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>J04AC01</t>
+          <t>J04AC01,QJ04AC01</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>J04AM08</t>
+          <t/>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>J02AC02</t>
+          <t>J02AC02,QJ02AC02</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>J01FA07</t>
+          <t>J01FA07,QJ01FA07</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>A07AA08,J01GB04,S01AA24</t>
+          <t>A07AA08,J01GB04,QA07AA08,QJ01GB04,QS01AA24,S01AA24</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F237" t="e">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F238" t="e">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>D01AC08,G01AF11,H02CA03,J02AB02</t>
+          <t>D01AC08,G01AF11,H02CA03,J02AB02,QD01AC08,QG01AF11,QH02CA03,QJ02AB02</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>J01MA25</t>
+          <t>J01MA25,QJ01MA25</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>J01DD06</t>
+          <t>J01DD06,QJ01DD06</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>J01XX12</t>
+          <t>J01XX12,QJ01XX12</t>
         </is>
       </c>
       <c r="F244" t="e">
@@ -15442,7 +15442,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F245" t="e">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>J01MA12,S01AE05</t>
+          <t>J01MA12,QJ01MA12,QS01AE05,S01AE05</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>J01RA05</t>
+          <t/>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>J01MA24</t>
+          <t>J01MA24,QJ01MA24</t>
         </is>
       </c>
       <c r="F248" t="e">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F249" t="e">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>J01FF02</t>
+          <t>J01FF02,QJ01FF02,QJ51FF02</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>J01XX08</t>
+          <t>J01XX08,QJ01XX08</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F252" t="e">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>J01MA07,S01AE04</t>
+          <t>J01MA07,QJ01MA07,QS01AE04,S01AE04</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>J01DC08</t>
+          <t>J01DC08,QJ01DC08</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>J01AA04</t>
+          <t>J01AA04,QJ01AA04</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>B05CA06,J01XX06</t>
+          <t>B05CA06,J01XX06,QB05CA06,QJ01XX06</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F257" t="e">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>J01CA11</t>
+          <t>J01CA11,QJ01CA11</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F260" t="e">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>J01DH02</t>
+          <t>J01DH02,QJ01DH02</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F262" t="e">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>J01DH52</t>
+          <t/>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F264" t="e">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>J01AA05</t>
+          <t>J01AA05,QJ01AA05</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>J01CA14</t>
+          <t>J01CA14,QJ01CA14</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>J01XX05</t>
+          <t>J01XX05,QJ01XX05</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -16868,7 +16868,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>J01CF03</t>
+          <t>J01CF03,QJ01CF03,QJ51CF03</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F269" t="e">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F270" t="e">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A01AB17,D06BX01,G01AF01,J01XD01,P01AB01</t>
+          <t>A01AB17,D06BX01,G01AF01,J01XD01,P01AB01,QA01AB17,QD06BX01,QG01AF01,QJ01XD01,QP51CA01</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>J01CA10</t>
+          <t>J01CA10,QJ01CA10</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F273" t="e">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>J02AX05</t>
+          <t>J02AX05,QJ02AX05</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -17300,7 +17300,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A01AB09,A07AC01,D01AC02,G01AF04,J02AB01,S02AA13</t>
+          <t>A01AB09,A07AC01,D01AC02,G01AF04,J02AB01,QA01AB09,QA07AC01,QD01AC02,QG01AF04,QJ02AB01,QS02AA13,S02AA13</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>S01AA22</t>
+          <t>QS01AA22,S01AA22</t>
         </is>
       </c>
       <c r="F276" t="e">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>J01FA03</t>
+          <t>J01FA03,QJ01FA03</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F278" t="e">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>A01AB23,D10AF07,J01AA08</t>
+          <t>A01AB23,D10AF07,J01AA08,QA01AB23,QD10AF07,QJ01AA08</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>J01FA11</t>
+          <t>J01FA11,QJ01FA11</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F281" t="e">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>J04AK04</t>
+          <t>J04AK04,QJ04AK04</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -17798,7 +17798,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>J01MA14,S01AE07</t>
+          <t>J01MA14,QJ01MA14,QS01AE07,S01AE07</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>D06AX09,R01AX06</t>
+          <t>D06AX09,QD06AX09,QR01AX06,R01AX06</t>
         </is>
       </c>
       <c r="F284" t="e">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F285" t="e">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>D10AF05</t>
+          <t>D10AF05,QD10AF05</t>
         </is>
       </c>
       <c r="F286" t="e">
@@ -18038,7 +18038,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>J01CF06</t>
+          <t>J01CF06,QJ01CF06</t>
         </is>
       </c>
       <c r="F287" t="e">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F288" t="e">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>J01MB02</t>
+          <t>J01MB02,QJ01MB02</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F290" t="e">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>J01MB08</t>
+          <t>J01MB08,QJ01MB08</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>A01AB08,A07AA01,B05CA09,D06AX04,J01GB05,R02AB01,S01AA03,S02AA07,S03AA01</t>
+          <t>A01AB08,A07AA01,B05CA09,D06AX04,J01GB05,QA01AB08,QA07AA01,QB05CA09,QD06AX04,QJ01GB05,QR02AB01,QS01AA03,QS02AA07,QS03AA01,R02AB01,S01AA03,S02AA07,S03AA01</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>J01GB07,S01AA23</t>
+          <t>J01GB07,QJ01GB07,QS01AA23,S01AA23</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F295" t="e">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F296" t="e">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>J01XE02</t>
+          <t>J01XE02,QJ01XE02</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -18770,7 +18770,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>J01XE01</t>
+          <t>J01XE01,QJ01XE01</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F300" t="e">
@@ -18892,7 +18892,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>J01XX07</t>
+          <t>J01XX07,QJ01XX07</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>J01MA06,S01AE02</t>
+          <t>J01MA06,QJ01MA06,QS01AE02,S01AE02</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -19020,7 +19020,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F303" t="e">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>J01RA14</t>
+          <t/>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>J01RA13</t>
+          <t/>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F306" t="e">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>A07AA02,D01AA01,G01AA01</t>
+          <t>A07AA02,D01AA01,G01AA01,QA07AA02,QD01AA01,QG01AA01</t>
         </is>
       </c>
       <c r="F308" t="e">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>J01MA01,S01AE01,S02AA16</t>
+          <t>J01MA01,QJ01MA01,QS01AE01,QS02AA16,S01AE01,S02AA16</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>J01RA09</t>
+          <t/>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -19506,7 +19506,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>J01FA05</t>
+          <t>J01FA05,QJ01FA05</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>J01AA15</t>
+          <t>J01AA15,QJ01AA15</t>
         </is>
       </c>
       <c r="F312" t="e">
@@ -19632,7 +19632,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F313" t="e">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>J01XA05</t>
+          <t>J01XA05,QJ01XA05</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F316" t="e">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>G01AF06,J01XD03,P01AB03</t>
+          <t>G01AF06,J01XD03,P01AB03,QG01AF06,QJ01XD03,QP51AA03</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>J02AC06</t>
+          <t>J02AC06,QJ02AC06</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -19998,7 +19998,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>J01CF04</t>
+          <t>J01CF04,QJ01CF04,QJ51CF04</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -20064,7 +20064,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F320" t="e">
@@ -20122,7 +20122,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>J01MB05</t>
+          <t>J01MB05,QJ01MB05</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>A01AB25,D06AA03,G01AA07,J01AA06,S01AA04</t>
+          <t>A01AB25,D06AA03,G01AA07,J01AA06,QA01AB25,QD06AA03,QG01AA07,QG51AA01,QJ01AA06,QJ51AA06,QS01AA04,S01AA04</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>D06AX14</t>
+          <t>D06AX14,QD06AX14</t>
         </is>
       </c>
       <c r="F323" t="e">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F324" t="e">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>J01DH55</t>
+          <t/>
         </is>
       </c>
       <c r="F325" t="e">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>A07AA06</t>
+          <t>A07AA06,QA07AA06,QJ01GB92</t>
         </is>
       </c>
       <c r="F326" t="e">
@@ -20486,7 +20486,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>J01MA18</t>
+          <t>J01MA18,QJ01MA18</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -20550,7 +20550,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>J01MA03</t>
+          <t>J01MA03,QJ01MA03</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F329" t="e">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>J01CE06</t>
+          <t>J01CE06,QJ01CE06</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F331" t="e">
@@ -20796,7 +20796,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F332" t="e">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>J01AA10</t>
+          <t>J01AA10,QJ01AA10</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F334" t="e">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F335" t="e">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F336" t="e">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>J01CE05</t>
+          <t>J01CE05,QJ01CE05</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -21154,7 +21154,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>J01CE02</t>
+          <t>J01CE02,QJ01CE02</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -21218,7 +21218,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F339" t="e">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>J01MB04</t>
+          <t>J01MB04,QJ01MB04</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>J01CA12</t>
+          <t>J01CA12,QJ01CA12</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01CR05,QJ01CR05</t>
         </is>
       </c>
       <c r="F342" t="e">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>J01CR05</t>
+          <t>J01CR05,QJ01CR05</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -21526,7 +21526,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F344" t="e">
@@ -21642,7 +21642,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>J01MB03</t>
+          <t>J01MB03,QJ01MB03</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>J01CA02</t>
+          <t>J01CA02,QJ01CA02</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>J01CA08</t>
+          <t>J01CA08,QJ01CA08</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -21834,7 +21834,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>J01GB14</t>
+          <t>J01GB14,QJ01GB14</t>
         </is>
       </c>
       <c r="F349" t="e">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>A07AA05,J01XB02,S01AA18,S02AA11,S03AA03</t>
+          <t>A07AA05,J01XB02,QA07AA05,QJ01XB02,QJ51XB02,QS01AA18,QS02AA11,QS03AA03,S01AA18,S02AA11,S03AA03</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F351" t="e">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>J02AC04</t>
+          <t>J02AC04,QJ02AC04</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -22140,7 +22140,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F354" t="e">
@@ -22198,7 +22198,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>J04AK08</t>
+          <t>J04AK08,QJ04AK08</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F356" t="e">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>J01FG01</t>
+          <t>J01FG01,QJ01FG01</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>J01CE09</t>
+          <t>J01CE09,QJ01CE09,QJ51CE09</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>J01CE03</t>
+          <t>J01CE03,QJ01CE03</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F360" t="e">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>J04AD01</t>
+          <t>J04AD01,QJ04AD01</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -22634,7 +22634,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>J01MA17</t>
+          <t>J01MA17,QJ01MA17</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>J04AK01</t>
+          <t>J04AK01,QJ04AK01</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -22762,7 +22762,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>QJ01FG02</t>
+          <t/>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F365" t="e">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F366" t="e">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F367" t="e">
@@ -22998,7 +22998,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>D06AX13</t>
+          <t>D06AX13,QD06AX13</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F369" t="e">
@@ -23118,7 +23118,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>L01EF02</t>
+          <t>L01EF02,QL01EF02</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -23182,7 +23182,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>J01GB10</t>
+          <t>J01GB10,QJ01GB10</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F372" t="e">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>J04AB04</t>
+          <t>J04AB04,QJ04AB04</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>J04AB02</t>
+          <t>J04AB02,QJ04AB02,QJ54AB02</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>J04AM07</t>
+          <t/>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>J04AM02</t>
+          <t/>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -23558,7 +23558,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>J04AM06</t>
+          <t/>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -23620,7 +23620,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>J04AM05</t>
+          <t/>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -23682,7 +23682,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>A07AA13,D06AX15,J04AB03,S01AA16,S02AA12</t>
+          <t>A07AA13,D06AX15,J04AB03,QA07AA13,QD06AX15,QJ04AB03,QJ54AB03,QS01AA16,QS02AA12,S01AA16,S02AA12</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>J04AB05</t>
+          <t>J04AB05,QJ04AB05</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -23812,7 +23812,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>A07AA11,D06AX11</t>
+          <t>A07AA11,D06AX11,QA07AA11,QD06AX11,QG51AA06,QJ51XX01</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F382" t="e">
@@ -23934,7 +23934,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F383" t="e">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>J01FA12</t>
+          <t>J01FA12,QJ01FA12</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -24056,7 +24056,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>J01AA09</t>
+          <t>J01AA09,QJ01AA09</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -24120,7 +24120,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>J01MB01</t>
+          <t>J01MB01,QJ01MB01</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>J01FA06</t>
+          <t>J01FA06,QJ01FA06</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>J01MA10</t>
+          <t>J01MA10,QJ01MA10</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -24428,7 +24428,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>J01AA14</t>
+          <t>J01AA14,QJ01AA14</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -24492,7 +24492,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F392" t="e">
@@ -24610,7 +24610,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>C10BA04</t>
+          <t/>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -24672,7 +24672,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>J01GB08</t>
+          <t>J01GB08,QJ01GB08</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -24736,7 +24736,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>J01MA21</t>
+          <t>J01MA21,QJ01MA21</t>
         </is>
       </c>
       <c r="F396" t="e">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>J04AA02</t>
+          <t>J04AA02,QJ04AA02</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>J01FA16</t>
+          <t>J01FA16,QJ01FA16</t>
         </is>
       </c>
       <c r="F398" t="e">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>J01MA09</t>
+          <t>J01MA09,QJ01MA09</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -24984,7 +24984,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>J01XX04</t>
+          <t>J01XX04,QJ01XX04</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>J01FA02</t>
+          <t>J01FA02,QJ01FA02,QJ51FA02</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -25112,7 +25112,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>J01RA04</t>
+          <t/>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -25174,7 +25174,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>J01GA02</t>
+          <t>J01GA02,QJ01GA02</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -25238,7 +25238,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>A07AA04,J01GA01</t>
+          <t>A07AA04,J01GA01,QA07AA04,QJ01GA01</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -25302,7 +25302,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F405" t="e">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>J04AM01</t>
+          <t/>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -25422,7 +25422,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>J01CG01</t>
+          <t>J01CG01,QJ01CG01</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>J01CA16</t>
+          <t>J01CA16,QJ01CA16</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>D01AC09</t>
+          <t>D01AC09,QD01AC09</t>
         </is>
       </c>
       <c r="F409" t="e">
@@ -25666,7 +25666,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>J01EC02</t>
+          <t>J01EC02,QJ01EQ10</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -25730,7 +25730,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>J01EE06</t>
+          <t/>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -25792,7 +25792,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>J01EE02</t>
+          <t/>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -25854,7 +25854,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>J01ED01</t>
+          <t>J01ED01,QJ01EQ09,QP51BA01</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>J01EB03</t>
+          <t>J01EB03,QJ01EQ03,QP51AG01</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -25982,7 +25982,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>J01EE05</t>
+          <t/>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -26044,7 +26044,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>J01EB05,S01AB02</t>
+          <t>J01EB05,QJ01EQ05,QS01AB02,S01AB02</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -26176,7 +26176,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>J01ED02</t>
+          <t>J01ED02,QJ01EQ19</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -26304,7 +26304,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>D06BA06,J01ED07</t>
+          <t>D06BA06,J01ED07,QD06BA06,QJ01EQ17</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>J01EE07</t>
+          <t/>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F423" t="e">
@@ -26488,7 +26488,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>B05CA04,D06BA04,J01EB02,S01AB01</t>
+          <t>B05CA04,D06BA04,J01EB02,QB05CA04,QD06BA04,QJ01EQ02,QS01AB01,S01AB01</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -26552,7 +26552,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>J01EC01</t>
+          <t>J01EC01,QJ01EQ11</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -26616,7 +26616,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>J01ED05</t>
+          <t>J01ED05,QJ01EQ15</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>J01EE03</t>
+          <t/>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>J01EE04</t>
+          <t/>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>D06BA05,J01EB06</t>
+          <t>D06BA05,J01EB06,QD06BA05,QJ01EQ06</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -27122,7 +27122,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>J01ED08</t>
+          <t>J01ED08,QJ01EQ08</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -27186,7 +27186,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>J01EB04</t>
+          <t>J01EB04,QJ01EQ04</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F436" t="e">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>D06BA02,J01EB07</t>
+          <t>D06BA02,J01EB07,QD06BA02,QJ01EQ07</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F439" t="e">
@@ -27492,7 +27492,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F440" t="e">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F441" t="e">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>J01CR04</t>
+          <t>J01CR04,QJ01CR04</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -27672,7 +27672,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F443" t="e">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>J01CA15</t>
+          <t>J01CA15,QJ01CA15</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F445" t="e">
@@ -27852,7 +27852,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>J01CG02</t>
+          <t>J01CG02,QJ01CG02</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>J01DH06</t>
+          <t/>
         </is>
       </c>
       <c r="F447" t="e">
@@ -27974,7 +27974,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>J01XX11</t>
+          <t>J01XX11,QJ01XX11</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -28040,7 +28040,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>J01XA02</t>
+          <t>J01XA02,QJ01XA02</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -28104,7 +28104,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F450" t="e">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>J01XA03</t>
+          <t>J01XA03,QJ01XA03</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>J01FA15</t>
+          <t>J01FA15,QJ01FA15</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>J01MA05</t>
+          <t>J01MA05,QJ01MA05</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>J01CA17</t>
+          <t>J01CA17,QJ01CA17</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -28416,7 +28416,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>D01AE15,D01BA02</t>
+          <t>D01AE15,D01BA02,QD01AE15,QD01BA02</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -28480,7 +28480,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>G01AG02</t>
+          <t>G01AG02,QG01AG02</t>
         </is>
       </c>
       <c r="F456" t="e">
@@ -28538,7 +28538,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>J04AK03</t>
+          <t>J04AK03,QJ04AK03</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -28600,7 +28600,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>A01AB13,D06AA04,J01AA07,S01AA09,S02AA08,S03AA02</t>
+          <t>A01AB13,D06AA04,J01AA07,QA01AB13,QD06AA04,QG01AA90,QG51AA02,QJ01AA07,QJ51AA07,QS01AA09,QS02AA08,QS03AA02,S01AA09,S02AA08,S03AA02</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F459" t="e">
@@ -28724,7 +28724,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>J01RA08</t>
+          <t/>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -28786,7 +28786,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F461" t="e">
@@ -28844,7 +28844,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F462" t="e">
@@ -28902,7 +28902,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>J01BA02</t>
+          <t>J01BA02,QJ01BA02,QJ51BA02</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>J04AK07</t>
+          <t>J04AK07,QJ04AK07</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -29030,7 +29030,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>J04AM04</t>
+          <t/>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -29150,7 +29150,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>J01CA13</t>
+          <t>J01CA13,QJ01CA13</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>J01CR03</t>
+          <t>J01CR03,QJ01CR03</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -29278,7 +29278,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>J01AA12</t>
+          <t>J01AA12,QJ01AA12</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -29342,7 +29342,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F470" t="e">
@@ -29574,7 +29574,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>G01AF21,J01XD02,P01AB02</t>
+          <t>G01AF21,J01XD02,P01AB02,QG01AF21,QJ01XD02,QP51AA02</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>J04AD02</t>
+          <t>J04AD02,QJ04AD02</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -29704,7 +29704,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F476" t="e">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F477" t="e">
@@ -29820,7 +29820,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F478" t="e">
@@ -29878,7 +29878,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>J01GB01,S01AA12</t>
+          <t>J01GB01,QJ01GB01,QS01AA12,S01AA12</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -29942,7 +29942,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F480" t="e">
@@ -30000,7 +30000,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>J01MA22,S01AE09</t>
+          <t>J01MA22,QJ01MA22,QS01AE09,S01AE09</t>
         </is>
       </c>
       <c r="F481" t="e">
@@ -30060,7 +30060,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>J01EA01</t>
+          <t>J01EA01,QJ01EA01,QJ51EA01</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>J01EE01</t>
+          <t/>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -30188,7 +30188,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>J01FA08</t>
+          <t>J01FA08,QJ01FA08</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -30252,7 +30252,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F485" t="e">
@@ -30310,7 +30310,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>J01MA13</t>
+          <t>J01MA13,QJ01MA13</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -30550,7 +30550,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F490" t="e">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>A07AA09,J01XA01,S01AA28</t>
+          <t>A07AA09,J01XA01,QA07AA09,QJ01XA01,QS01AA28,S01AA28</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F492" t="e">
@@ -30732,7 +30732,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F493" t="e">
@@ -30790,7 +30790,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F494" t="e">
@@ -30848,7 +30848,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>J02AC03</t>
+          <t>J02AC03,QJ02AC03</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>J01XX02</t>
+          <t>J01XX02,QJ01XX02</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F497" t="e">
@@ -31032,7 +31032,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t/>
         </is>
       </c>
       <c r="F498" t="e">

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="e">
@@ -588,7 +588,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="e">
@@ -774,7 +774,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="e">
@@ -1045,17 +1045,21 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
+      <c r="J11">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1150,7 +1154,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="e">
@@ -1460,7 +1464,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F18" t="e">
@@ -1696,7 +1700,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F22" t="e">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F23" t="e">
@@ -1870,7 +1874,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F25" t="e">
@@ -2058,7 +2062,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA07,QJ01RA07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2798,7 +2802,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F40" t="e">
@@ -2914,7 +2918,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F42" t="e">
@@ -3032,7 +3036,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F44" t="e">
@@ -3270,7 +3274,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F48" t="e">
@@ -4530,7 +4534,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F68" t="e">
@@ -4716,7 +4720,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F71" t="e">
@@ -5254,7 +5258,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F80" t="e">
@@ -5312,7 +5316,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F81" t="e">
@@ -5370,7 +5374,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F82" t="e">
@@ -6122,7 +6126,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F94" t="e">
@@ -6244,7 +6248,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F96" t="e">
@@ -6548,7 +6552,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F101" t="e">
@@ -6728,7 +6732,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F104" t="e">
@@ -6846,7 +6850,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F106" t="e">
@@ -7096,7 +7100,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F110" t="e">
@@ -7173,11 +7177,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="J111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K111" t="e">
-        <v>#N/A</v>
+      <c r="J111">
+        <v>0.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L111" t="e">
         <v>#N/A</v>
@@ -7462,7 +7468,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F116" t="e">
@@ -7520,7 +7526,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F117" t="e">
@@ -7545,13 +7551,11 @@
       <c r="K117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L117">
-        <v>1.2</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -7580,7 +7584,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F118" t="e">
@@ -7727,11 +7731,13 @@
       <c r="K120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M120" t="e">
-        <v>#N/A</v>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -7884,7 +7890,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F123" t="e">
@@ -8192,7 +8198,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F128" t="e">
@@ -8250,7 +8256,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F129" t="e">
@@ -8630,7 +8636,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F135" t="e">
@@ -8711,11 +8717,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="J136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K136" t="e">
-        <v>#N/A</v>
+      <c r="J136">
+        <v>0.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L136" t="e">
         <v>#N/A</v>
@@ -8750,7 +8758,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F137" t="e">
@@ -8808,7 +8816,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -8831,21 +8839,17 @@
           <t>anspor,cefradin,cefradina,cefradine,cefradinum,cekodin,cephradin,ecosporina,eskacef,infexin,megacef,sefril,velocef,velosef</t>
         </is>
       </c>
-      <c r="J138">
-        <v>2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L138">
-        <v>2</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="J138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M138" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -8874,7 +8878,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F139" t="e">
@@ -9062,7 +9066,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F142" t="e">
@@ -9312,7 +9316,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA10,QJ01RA10</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9374,7 +9378,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA12,QJ01RA12</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9436,7 +9440,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA11,QJ01RA11</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9564,7 +9568,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F150" t="e">
@@ -9622,7 +9626,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F151" t="e">
@@ -9746,7 +9750,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F153" t="e">
@@ -10248,7 +10252,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F161" t="e">
@@ -11254,7 +11258,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F177" t="e">
@@ -11494,7 +11498,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F181" t="e">
@@ -11618,7 +11622,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F183" t="e">
@@ -11936,7 +11940,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM03,QJ04AM03</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -12118,7 +12122,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F191" t="e">
@@ -12300,7 +12304,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F194" t="e">
@@ -12358,7 +12362,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F195" t="e">
@@ -12926,7 +12930,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F204" t="e">
@@ -13050,7 +13054,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F206" t="e">
@@ -13668,7 +13672,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F216" t="e">
@@ -13908,7 +13912,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F220" t="e">
@@ -14092,7 +14096,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F223" t="e">
@@ -14266,7 +14270,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t/>
+          <t>J01DH51,QJ01DH51</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -14330,7 +14334,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F227" t="e">
@@ -14388,7 +14392,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t/>
+          <t>J01DH56,QJ01DH56</t>
         </is>
       </c>
       <c r="F228" t="e">
@@ -14702,7 +14706,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -14960,7 +14964,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F237" t="e">
@@ -15018,7 +15022,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F238" t="e">
@@ -15442,7 +15446,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F245" t="e">
@@ -15566,7 +15570,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA05,QJ01RA05</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -15686,7 +15690,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F249" t="e">
@@ -15876,7 +15880,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F252" t="e">
@@ -16192,7 +16196,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F257" t="e">
@@ -16372,7 +16376,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F260" t="e">
@@ -16494,7 +16498,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F262" t="e">
@@ -16552,7 +16556,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t/>
+          <t>J01DH52,QJ01DH52</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -16616,7 +16620,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F264" t="e">
@@ -16932,7 +16936,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F269" t="e">
@@ -16990,7 +16994,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F270" t="e">
@@ -17178,7 +17182,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F273" t="e">
@@ -17490,7 +17494,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F278" t="e">
@@ -17678,7 +17682,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F281" t="e">
@@ -17922,7 +17926,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F285" t="e">
@@ -18098,7 +18102,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F288" t="e">
@@ -18220,7 +18224,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F290" t="e">
@@ -18530,7 +18534,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F295" t="e">
@@ -18588,7 +18592,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F296" t="e">
@@ -18834,7 +18838,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F300" t="e">
@@ -19020,7 +19024,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F303" t="e">
@@ -19078,7 +19082,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA14,QJ01RA14</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -19140,7 +19144,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA13,QJ01RA13</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -19202,7 +19206,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F306" t="e">
@@ -19444,7 +19448,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA09,QJ01RA09</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -19632,7 +19636,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F313" t="e">
@@ -19810,7 +19814,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F316" t="e">
@@ -20064,7 +20068,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F320" t="e">
@@ -20308,7 +20312,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F324" t="e">
@@ -20366,7 +20370,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F325" t="e">
@@ -20391,13 +20395,11 @@
       <c r="K325" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L325">
-        <v>2</v>
-      </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L325" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M325" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -20616,7 +20618,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F329" t="e">
@@ -20738,7 +20740,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F331" t="e">
@@ -20796,7 +20798,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F332" t="e">
@@ -20916,7 +20918,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F334" t="e">
@@ -20974,7 +20976,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F335" t="e">
@@ -21032,7 +21034,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F336" t="e">
@@ -21218,7 +21220,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F339" t="e">
@@ -21429,11 +21431,13 @@
       <c r="K342" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M342" t="e">
-        <v>#N/A</v>
+      <c r="L342">
+        <v>14</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -21526,7 +21530,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F344" t="e">
@@ -21958,7 +21962,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F351" t="e">
@@ -22140,7 +22144,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F354" t="e">
@@ -22262,7 +22266,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F356" t="e">
@@ -22512,7 +22516,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F360" t="e">
@@ -22762,7 +22766,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t/>
+          <t>QJ01FG02</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -22824,7 +22828,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F365" t="e">
@@ -22882,7 +22886,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F366" t="e">
@@ -22940,7 +22944,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F367" t="e">
@@ -23060,7 +23064,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F369" t="e">
@@ -23246,7 +23250,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F372" t="e">
@@ -23434,7 +23438,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM07,QJ04AM07</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -23496,7 +23500,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM02,QJ04AM02</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -23558,7 +23562,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM06,QJ04AM06</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -23620,7 +23624,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM05,QJ04AM05</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -23876,7 +23880,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F382" t="e">
@@ -23934,7 +23938,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F383" t="e">
@@ -24492,7 +24496,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F392" t="e">
@@ -24610,7 +24614,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t/>
+          <t>C10BA04,QC10BA04</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -25112,7 +25116,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA04,QJ01RA04</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -25302,7 +25306,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F405" t="e">
@@ -25360,7 +25364,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM01,QJ04AM01</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -25730,7 +25734,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE06</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -25792,7 +25796,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE02,QJ01EW10,QJ51RE01</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -25982,7 +25986,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE05,QJ01EW03</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -26368,7 +26372,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE07,QJ01EW18</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -26430,7 +26434,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F423" t="e">
@@ -26806,7 +26810,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE03</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -26934,7 +26938,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE04</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -27250,7 +27254,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F436" t="e">
@@ -27434,7 +27438,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F439" t="e">
@@ -27492,7 +27496,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F440" t="e">
@@ -27550,7 +27554,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F441" t="e">
@@ -27672,7 +27676,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F443" t="e">
@@ -27794,7 +27798,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F445" t="e">
@@ -27914,7 +27918,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F447" t="e">
@@ -27933,13 +27937,11 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="J447">
-        <v>0.56</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="J447" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K447" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L447" t="e">
         <v>#N/A</v>
@@ -28104,7 +28106,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F450" t="e">
@@ -28666,7 +28668,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F459" t="e">
@@ -28724,7 +28726,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t/>
+          <t>J01RA08,QJ01RA08</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -28786,7 +28788,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F461" t="e">
@@ -28844,7 +28846,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F462" t="e">
@@ -29030,7 +29032,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t/>
+          <t>J04AM04,QJ04AM04</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -29342,7 +29344,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F470" t="e">
@@ -29704,7 +29706,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F476" t="e">
@@ -29762,7 +29764,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F477" t="e">
@@ -29820,7 +29822,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F478" t="e">
@@ -29942,7 +29944,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F480" t="e">
@@ -30126,7 +30128,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t/>
+          <t>J01EE01</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -30252,7 +30254,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F485" t="e">
@@ -30550,7 +30552,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F490" t="e">
@@ -30674,7 +30676,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F492" t="e">
@@ -30732,7 +30734,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F493" t="e">
@@ -30790,7 +30792,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F494" t="e">
@@ -30976,7 +30978,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F497" t="e">
@@ -31032,7 +31034,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F498" t="e">

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -725,7 +725,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ak,ami,amik,amk,an</t>
+          <t>ak,ami,amik,amikac,amk,an</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ac,amox,amx</t>
+          <t>ac,amox,amoxic,amx</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>a/c,amcl,aml,aug,xl</t>
+          <t>a/c,amcl,aml,amocla,aug,xl</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>amf,amfb,amph</t>
+          <t>amf,amfb,amph,amphot</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>am,amp,ampi</t>
+          <t>am,amp,amp100,amp200,ampi,ampici</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>a/s,ab,ams,amsu,apsu,sam</t>
+          <t>a/s,ab,ampsul,ams,amsu,apsu,sam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>anid</t>
+          <t>anid,anidul</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>apalci</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>apramy</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>arbeka</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>apoxic,aspoxi</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>astrom</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>avilam</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>az,azi,azit,azm</t>
+          <t>az,azi,azit,azithr,azm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>az,azl,azlo</t>
+          <t>az,azl,azlo,azloci</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>at,atm,azm,azt,aztr</t>
+          <t>at,atm,azm,azt,azt1,aztr,aztreo</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>bacamp</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>baci</t>
+          <t>baci,bacitr</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>bepe,pen,peni,peni g,penicillin,penicillin g,pg</t>
+          <t>bepe,pen,peni,peni g,penic8,penica,penici,penicillin,penicillin g,penora,pg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>besifl</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>biapen</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>capr</t>
+          <t>capr,capreo</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>bar,carb,cb</t>
+          <t>bar,carb,carben,cb</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>casp</t>
+          <t>casp,caspof</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cephac</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ccl,cec,cf,cfac,cfc,cfcl,cfr,fac</t>
+          <t>ccl,cec,cefacl,cf,cfac,cfc,cfcl,cfr,fac</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cfdx,cfr,fad</t>
+          <t>cefadr,cfdx,cfr,fad</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cflx</t>
+          <t>cepale,cflx</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cefa</t>
+          <t>cefa,ceplor</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cfal,cflt</t>
+          <t>cephal,cfal,cflt</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cfam,cfmn</t>
+          <t>cefama,cfam,cfmn</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cephap</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefatr</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefaze</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cfz,cfzl,cz,czol,faz,kz</t>
+          <t>cefazo,cfz,cfzl,cz,czol,faz,kz</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefbup</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefcap</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cd,cdn,cdr,cfd,din</t>
+          <t>cd,cdn,cdr,cefdin,cfd,din</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cdn</t>
+          <t>cdn,cefdit</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cfep,cfpi,cpe,cpm,fep,pm,xpm</t>
+          <t>cefep4,cefepi,cfep,cfpi,cpe,cpm,fep,pm,xpm</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cicl,xpml</t>
+          <t>cefcla,cicl,xpml</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefeta,cefmtm</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cfe,cfix,cfxm,dcfm,fix,ix</t>
+          <t>cefixi,cfe,cfix,cfxm,dcfm,fix,ix</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefmen</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefmet</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefmin</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefoni</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>cfp,cfpz,cp,cpz,fop,per</t>
+          <t>cefope,cfp,cfpz,cp,cpz,fop,per</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>fopsul</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefora</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefose</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>cfot,cft,cftx,ct,ctx,fot,tax,xct</t>
+          <t>cefo32,cefota,cfot,cft,cftx,ct,ctx,fot,fot1,tax,taxmen,taxnme,xct</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>cxcl,xctl</t>
+          <t>cxcl,taxcla,xctl</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>cftt,cn,cte,ctn,ctt,tans</t>
+          <t>cefote,cftt,cn,cte,ctn,ctt,tans</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefoti</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefove</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>cfox,cfx,cfxt,cx,fox,fx</t>
+          <t>cefoxi,cfox,cfx,cfxt,cx,fox,fx</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefozo</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefpim</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefpam</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>cfpr</t>
+          <t>cefpom,cfpr</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>cfpd,cfpo,cpd,pod,px</t>
+          <t>cefpod,cfpd,cfpo,cpd,pod,pod4,px</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>cecl</t>
+          <t>cecl,podcla</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>cpr,cpz,fp</t>
+          <t>cefpro,cpr,cpz,fp</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefqui</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ceftix</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>cfsl,cfsu</t>
+          <t>cefsul,cfsl,cfsu</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>cfro</t>
+          <t>ceftar,cfro</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>caz,cefta,cfta,cftz,taz,tz,xtz</t>
+          <t>caz,cefta,ceftaz,cfta,cftz,taz,tz,xtz</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>czcl,xtzl</t>
+          <t>czcl,tazcla,xtzl</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefter</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ceftez</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>cb,cfbu,ctb,tib</t>
+          <t>cb,ceftib,cfbu,ctb,tib</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ceftif</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>cfzx,ctz,cz,czx,tiz,zox</t>
+          <t>ceftiz,cfzx,ctz,cz,czx,tiz,zox</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ceftob</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>axo,cax,cftr,cro,ctr,frx,tx</t>
+          <t>axo,cax,ceftri,cftr,cro,ctr,frx,trimen,trinme,tx</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>cfrx,cfur,cfx,crm,cxm,fur,rox,xm</t>
+          <t>cefaxe,cefrox,cefuro,cfrx,cfur,cfx,crm,cxm,fur,rox,xm</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cefuzo</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>cfra,cfrd</t>
+          <t>cephra,cfra,cfrd</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>c,chl,chlo,cl</t>
+          <t>c,chl,chlo,chlora,cl</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>chltet</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>cyclac</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>cino,cnox</t>
+          <t>cino,cinoxa,cnox</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>ci,cip,cipr,cp</t>
+          <t>ci,cip,cipr,ciprof,cp</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>ch,cla,clar,clm,clr</t>
+          <t>ch,cla,clar,claryt,clm,clr</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>clinaf</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>cc,cd,cli,clin,cm,da</t>
+          <t>cc,cd,cli,clin,clin32,clinda,cm,da</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>clof</t>
+          <t>clof,clofam</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>clox</t>
+          <t>clox,cloxac</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>cl,coli,cs,cst,ct</t>
+          <t>cl,coli,colist,cs,cst,ct</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>cycl</t>
+          <t>cycl,cyclos</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>dalb</t>
+          <t>dalb,dalbav</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>danofl</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>dap,dapt</t>
+          <t>dap,dapt,dapt25,dapt50,daptom</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>demecy</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dibeka</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>dicl,diclox</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>diflox</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dirith</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>dori</t>
+          <t>dori,doripe</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>dox,doxy</t>
+          <t>dox,doxy,doxycy</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>enox</t>
+          <t>enox,enoxa</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>enrofl</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>erta,etp</t>
+          <t>erta,ertape,etp</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>e,em,ery,eryt</t>
+          <t>e,em,ery,ery32,eryt,eryth</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>etha</t>
+          <t>etha,ethamb</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>ethi</t>
+          <t>ethi,ethion</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>farope</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>flavom</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -12435,7 +12435,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>fler</t>
+          <t>fler,flerox</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>flomox</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>florfe</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>clox,flux</t>
+          <t>clox,fluclo,flux</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>fluc,fluz,flz</t>
+          <t>fluc,flucon,fluz,flz</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>5flc,fcu,fluo,fluy</t>
+          <t>5flc,fcu,flucyt,fluo,fluy</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>flumeq</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>ff,fm,fo,fof,fos,fosf</t>
+          <t>ff,fm,fo,fof,fos,fosf,fosfom,fosmyc</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>fram</t>
+          <t>fram,framyc</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>furazo</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>fa,fusi</t>
+          <t>fa,fusaci,fusi</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>gareno</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>gati</t>
+          <t>gati,gatifl</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>gemifl</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>cn,gen,gent,gm</t>
+          <t>cn,ge1000,ge2000,gen,gen128,gen500,gent,genta1,gentam,gm</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>grep</t>
+          <t>grep,grepaf</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>hetaci</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>iclapr</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>imci,imi,imip,imp</t>
+          <t>imci,imi,imip,imip32,imipen,imp</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>isepam</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>inh</t>
+          <t>inh,isonia</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>itra</t>
+          <t>itra,itraco</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>josamy</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>hlk,k,kan,kana,km</t>
+          <t>hlk,k,kan,kana,kanamy,km</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>keto,ktc</t>
+          <t>keto,ketoco,ktc</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>le,lev,levo,lvx</t>
+          <t>le,lev,levo,levofl,lvx</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>linc</t>
+          <t>linc,lincom</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>line,lnz,lz,lzd</t>
+          <t>line,linezo,lnz,lz,lzd</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>linflo</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>lmf,lom,lome</t>
+          <t>lmf,lom,lome,lomefl</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>lora</t>
+          <t>lora,loraca</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>marbof</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>amdinocillin</t>
+          <t>amdinocillin,mecill</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>mem,mer,mero,mp,mrp</t>
+          <t>mem,mer,mero,merope,mp,mrp</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>methcy</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>meti</t>
+          <t>methic,meti</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>metr,mnz</t>
+          <t>metr,metron,mnz</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>mez,mezl,mz</t>
+          <t>mez,mezl,mezlo,mz</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>mezsul</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>mica</t>
+          <t>mica,micafu</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>micron</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>mideka</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>amiflo</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -17567,7 +17567,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>mc,mh,mi,min,mino,mn,mno</t>
+          <t>mc,mh,mi,min,mino,minocy,mn,mno</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>mox,moxi,mxf</t>
+          <t>mox,moxi,moxifl,mxf</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>mup,mupi</t>
+          <t>mup,mupi,mupiro</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nafcil</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>na,nal,nali</t>
+          <t>na,nal,nalac,nali</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>narasi</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -18417,7 +18417,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>neom</t>
+          <t>neom,neomyc</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>neti</t>
+          <t>neti,netilm</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>f,f/m,fd,ft,ni,nit,nitr</t>
+          <t>f,f/m,fd,ft,ni,nit,nit16,nitr,nitro</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nitfur</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>nor,norf,nx,nxn</t>
+          <t>nor,norf,norflo,nx,nxn</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>novo</t>
+          <t>novo,novobi</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -19333,7 +19333,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>nyst</t>
+          <t>nyst,nystan</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>of,ofl,oflo,ofx</t>
+          <t>of,ofl,oflo,ofloxa,ofx</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -19525,7 +19525,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>oleand</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>orbifl</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>orit</t>
+          <t>orit,oritav</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>ox,oxa,oxac,oxal,oxs</t>
+          <t>ox,oxa,oxac,oxacil,oxal,oxs</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>oxoaci</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -20205,7 +20205,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>oxytet</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pasraa</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -20567,7 +20567,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>pefl</t>
+          <t>pefl,perflo</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pennov</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>fepe,peni v,penicillin v,pnv,pv</t>
+          <t>fepe,peni v,penicillin v,phepen,pnv,pv</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>pipz,pizu</t>
+          <t>pipaci,pipz,pizu</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>pi,pip,pipc,pipe,pp</t>
+          <t>pi,pip,pipc,pipe,pipera,pp</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pirlim</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>pivmec</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>pb,pol,polb,poly,poly b,polymixin,polymixin b</t>
+          <t>pb,pol,polb,poly,poly b,polyb,polymixin,polymixin b</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>posa</t>
+          <t>posa,posaco</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -22155,7 +22155,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>premaf</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>pris</t>
+          <t>pris,pristi</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>q/d,qda,qida,quda,rp,syn</t>
+          <t>q/d,qda,qida,quda,rp,syn,synerc</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -22897,7 +22897,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ramopl</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -22955,7 +22955,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>razupe</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>rifb</t>
+          <t>ansamy,rifb</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>rifa</t>
+          <t>rifa,rifamp</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -23701,7 +23701,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>rifmyc</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -24011,7 +24011,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>rokita</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>roxi</t>
+          <t>roxi,roxith</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>salino</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -24385,7 +24385,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sarafl</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>siso</t>
+          <t>siso,sisomy</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -24751,7 +24751,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sitafl</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>spa,spar</t>
+          <t>spa,spar,sparfl</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>sc,spe,spec,spt</t>
+          <t>sc,spe,spec,spect,spt</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>spir</t>
+          <t>sipram,spir,spiram</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>s,stm,str,stre</t>
+          <t>s,st1000,st2000,stm,str,stre,strept</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulbac</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulben</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -25623,7 +25623,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulchl</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -25685,7 +25685,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>suldia</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -25873,7 +25873,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sdimet</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>suldim</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -26323,7 +26323,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulmet</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>sfmx,sulf</t>
+          <t>sfmx,sulf,sulfam</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -27327,7 +27327,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulthi</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -27449,7 +27449,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulfiz</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -27507,7 +27507,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>sfna</t>
+          <t>sfna,sulami</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -27565,7 +27565,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulope</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -27627,7 +27627,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sultos</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -27871,7 +27871,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>tazo</t>
+          <t>tazo,tazoba</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -28057,7 +28057,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>tec,tei,teic,tp,tpl,tpn</t>
+          <t>tec,tei,teic,teicop,tp,tpl,tpn</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -28179,7 +28179,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>tela</t>
+          <t>tela,telava</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -28241,7 +28241,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>teli</t>
+          <t>teli,telith</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>tema,temafl</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -28369,7 +28369,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>temo</t>
+          <t>temo,temoci</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>tc,te,tet,tetr</t>
+          <t>tc,te,tet,tetcyc,tetr,tetra</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>thiaph</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -29105,7 +29105,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tiamul</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -29167,7 +29167,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>tc,ti,tic,tica</t>
+          <t>tc,ti,tic,tica,ticarc</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -29231,7 +29231,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>t/c,tcc,ticl,tim,tlc</t>
+          <t>t/c,tcc,ticcla,ticl,tim,tlc</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>tgc,tig,tige</t>
+          <t>tgc,tig,tige,tigecy</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tilmic</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -29895,7 +29895,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>nn,tm,to,tob,tobr</t>
+          <t>nn,tm,to,tob,tobr,tobram</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -30013,7 +30013,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tosufl</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -30143,7 +30143,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>cot,cotrim,sxt,t/s,tms,trsu,trsx,ts</t>
+          <t>cot,cotrim,sxt,t/s,tms,trisul,trsu,trsx,ts</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>trospe</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -30327,7 +30327,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>trov</t>
+          <t>trov,trovaf</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -30389,7 +30389,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tulath</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tylo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -30625,7 +30625,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>va,van,vanc</t>
+          <t>va,van,vanc,vancom</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>vori,vrc</t>
+          <t>vori,vorico,vrc</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -7526,7 +7526,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01DI02,QJ01DI02</t>
         </is>
       </c>
       <c r="F117" t="e">

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N497"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>caz,cefta,ceftaz,cfta,cftz,taz,tz,xtz</t>
+          <t>caz,cef,cefta,ceftaz,cfta,cftz,taz,tz,xtz</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dao</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>etha,ethamb</t>
+          <t>emb,etha,ethamb</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Phosphonics</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>metr,metron,mnz</t>
+          <t>metr,metron,mnz,mtz</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -21406,7 +21406,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>J01CR05,QJ01CR05</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F342" t="e">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>ansamy,rifb</t>
+          <t>ansamy,rfb,rifb</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -24596,45 +24596,45 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SMF</t>
-        </is>
-      </c>
-      <c r="B394" t="e">
-        <v>#N/A</v>
+          <t>SIS</t>
+        </is>
+      </c>
+      <c r="B394">
+        <v>36119</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Simvastatin/fenofibrate</t>
+          <t>Sisomicin</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>C10BA04,QC10BA04</t>
+          <t>J01GB08,QJ01GB08</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Drugs for treatment of tuberculosis</t>
+          <t>Aminoglycoside antibacterials</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>Other drugs for treatment of tuberculosis</t>
+          <t>Other aminoglycosides</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>simv</t>
+          <t>siso,sisomy</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>rickamicin,salvamina,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
         </is>
       </c>
       <c r="J394" t="e">
@@ -24643,135 +24643,139 @@
       <c r="K394" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M394" t="e">
-        <v>#N/A</v>
+      <c r="L394">
+        <v>0.24</v>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18979-5,447-3,448-1,449-9,450-7,55714-0</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SIS</t>
+          <t>SIT</t>
         </is>
       </c>
       <c r="B395">
-        <v>36119</v>
+        <v>461399</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Sisomicin</t>
+          <t>Sitafloxacin</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>J01GB08,QJ01GB08</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>Aminoglycoside antibacterials</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>Other aminoglycosides</t>
-        </is>
+          <t>J01MA21,QJ01MA21</t>
+        </is>
+      </c>
+      <c r="F395" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G395" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>siso,sisomy</t>
+          <t>sitafl</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>rickamicin,salvamina,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
-        </is>
-      </c>
-      <c r="J395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L395">
-        <v>0.24</v>
-      </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>gracevit</t>
+        </is>
+      </c>
+      <c r="J395">
+        <v>0.1</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L395" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M395" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>18979-5,447-3,448-1,449-9,450-7,55714-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="B396">
-        <v>461399</v>
+        <v>2724368</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Sitafloxacin</t>
+          <t>Sodium aminosalicylate</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>J01MA21,QJ01MA21</t>
-        </is>
-      </c>
-      <c r="F396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G396" t="e">
-        <v>#N/A</v>
+          <t>J04AA02,QJ04AA02</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Aminosalicylic acid and derivatives</t>
+        </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>sitafl</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>gracevit</t>
+          <t>bactylan,lepasen,monopas,tubersan</t>
         </is>
       </c>
       <c r="J396">
-        <v>0.1</v>
+        <v>14</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M396" t="e">
-        <v>#N/A</v>
+      <c r="L396">
+        <v>14</v>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -24782,36 +24786,32 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B397">
-        <v>2724368</v>
+        <v>25242512</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Sodium aminosalicylate</t>
+          <t>Solithromycin</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>J04AA02,QJ04AA02</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>Drugs for treatment of tuberculosis</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>Aminosalicylic acid and derivatives</t>
-        </is>
+          <t>J01FA16,QJ01FA16</t>
+        </is>
+      </c>
+      <c r="F397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G397" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -24820,76 +24820,78 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>bactylan,lepasen,monopas,tubersan</t>
-        </is>
-      </c>
-      <c r="J397">
-        <v>14</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L397">
-        <v>14</v>
-      </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>solithera</t>
+        </is>
+      </c>
+      <c r="J397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M397" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>73587-8,73609-0,73632-2</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SPX</t>
         </is>
       </c>
       <c r="B398">
-        <v>25242512</v>
+        <v>60464</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Solithromycin</t>
+          <t>Sparfloxacin</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>J01FA16,QJ01FA16</t>
-        </is>
-      </c>
-      <c r="F398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G398" t="e">
-        <v>#N/A</v>
+          <t>J01MA09,QJ01MA09</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Quinolone antibacterials</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>spa,spar,sparfl</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>solithera</t>
-        </is>
-      </c>
-      <c r="J398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K398" t="e">
-        <v>#N/A</v>
+          <t>esparfloxacino,parox,spara,sparfloxacine,sparfloxacinum,zagam</t>
+        </is>
+      </c>
+      <c r="J398">
+        <v>0.2</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L398" t="e">
         <v>#N/A</v>
@@ -24899,189 +24901,187 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>73587-8,73609-0,73632-2</t>
+          <t>20397-6,23610-9,23628-1,35839-0,7047-4</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SPX</t>
+          <t>SPT</t>
         </is>
       </c>
       <c r="B399">
-        <v>60464</v>
+        <v>15541</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Sparfloxacin</t>
+          <t>Spectinomycin</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>J01MA09,QJ01MA09</t>
+          <t>J01XX04,QJ01XX04</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Quinolone antibacterials</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>spa,spar,sparfl</t>
+          <t>sc,spe,spec,spect,spt</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>esparfloxacino,parox,spara,sparfloxacine,sparfloxacinum,zagam</t>
-        </is>
-      </c>
-      <c r="J399">
-        <v>0.2</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L399" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M399" t="e">
-        <v>#N/A</v>
+          <t>actinospectacina,adspec,espectinomicina,prospec,spectam,spectinomicina,spectinomycine,spectinomycinhydrate,spectinomycinum,spectogard,stanilo,togamycin,trobicin</t>
+        </is>
+      </c>
+      <c r="J399" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K399" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L399">
+        <v>3</v>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>20397-6,23610-9,23628-1,35839-0,7047-4</t>
+          <t>18980-3,35840-8,451-5,452-3,453-1,454-9</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SPT</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B400">
-        <v>15541</v>
+        <v>6419898</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Spectinomycin</t>
+          <t>Spiramycin</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>J01XX04,QJ01XX04</t>
+          <t>J01FA02,QJ01FA02,QJ51FA02</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides, lincosamides and streptogramins</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>sc,spe,spec,spect,spt</t>
+          <t>sipram,spir,spiram</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>actinospectacina,adspec,espectinomicina,prospec,spectam,spectinomicina,spectinomycine,spectinomycinhydrate,spectinomycinum,spectogard,stanilo,togamycin,trobicin</t>
-        </is>
-      </c>
-      <c r="J400" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K400" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L400">
+          <t>formacidine</t>
+        </is>
+      </c>
+      <c r="J400">
         <v>3</v>
       </c>
-      <c r="M400" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L400" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M400" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>18980-3,35840-8,451-5,452-3,453-1,454-9</t>
+          <t>18981-1,455-6,456-4,457-2,458-0,55715-7</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SPI</t>
-        </is>
-      </c>
-      <c r="B401">
-        <v>6419898</v>
+          <t>SPM</t>
+        </is>
+      </c>
+      <c r="B401" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Spiramycin</t>
+          <t>Spiramycin/metronidazole</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>J01FA02,QJ01FA02,QJ51FA02</t>
+          <t>J01RA04,QJ01RA04</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Macrolides, lincosamides and streptogramins</t>
+          <t>Combinations of antibacterials</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Combinations of antibacterials</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>sipram,spir,spiram</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>formacidine</t>
-        </is>
-      </c>
-      <c r="J401">
-        <v>3</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J401" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K401" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L401" t="e">
         <v>#N/A</v>
@@ -25091,14 +25091,14 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>18981-1,455-6,456-4,457-2,458-0,55715-7</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SPM</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B402" t="e">
@@ -25106,27 +25106,27 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Spiramycin/metronidazole</t>
+          <t>Streptoduocin</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>J01RA04,QJ01RA04</t>
+          <t>J01GA02,QJ01GA02</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Combinations of antibacterials</t>
+          <t>Aminoglycoside antibacterials</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Combinations of antibacterials</t>
+          <t>Streptomycins</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -25145,11 +25145,13 @@
       <c r="K402" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L402" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M402" t="e">
-        <v>#N/A</v>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -25160,15 +25162,15 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>STR</t>
-        </is>
-      </c>
-      <c r="B403" t="e">
-        <v>#N/A</v>
+          <t>STR1</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>19649</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Streptoduocin</t>
+          <t>Streptomycin</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -25178,7 +25180,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>J01GA02,QJ01GA02</t>
+          <t>A07AA04,J01GA01,QA07AA04,QJ01GA01</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -25193,12 +25195,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>s,st1000,st2000,stm,str,stre,strept</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>agrept,agrimycin,chemform,estreptomicina,gerox,neodiestreptopab,strepcen,streptomicina,streptomycine,streptomycinum,streptomyzin</t>
         </is>
       </c>
       <c r="J403" t="e">
@@ -25217,22 +25219,22 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18982-9,18983-7,20462-8,23626-5,25185-0,25205-6,25206-4,35841-6,4039-4,42658-5,42659-3,459-8,460-6,461-4,462-2,46719-1,48177-0,6933-6,7048-2,7049-0,96114-4</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>STR1</t>
-        </is>
-      </c>
-      <c r="B404">
-        <v>19649</v>
+          <t>STH</t>
+        </is>
+      </c>
+      <c r="B404" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Streptomycin</t>
+          <t>Streptomycin-high</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -25242,27 +25244,23 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>A07AA04,J01GA01,QA07AA04,QJ01GA01</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>Aminoglycoside antibacterials</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>Streptomycins</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F404" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G404" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>s,st1000,st2000,stm,str,stre,strept</t>
+          <t>sthi,sthl,strepto high,streptomycin high</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>agrept,agrimycin,chemform,estreptomicina,gerox,neodiestreptopab,strepcen,streptomicina,streptomycine,streptomycinum,streptomyzin</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J404" t="e">
@@ -25271,24 +25269,22 @@
       <c r="K404" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L404">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L404" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M404" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>18982-9,18983-7,20462-8,23626-5,25185-0,25205-6,25206-4,35841-6,4039-4,42658-5,42659-3,459-8,460-6,461-4,462-2,46719-1,48177-0,6933-6,7048-2,7049-0,96114-4</t>
+          <t>18983-7,35841-6,6933-6,7049-0</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>STI</t>
         </is>
       </c>
       <c r="B405" t="e">
@@ -25296,28 +25292,32 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Streptomycin-high</t>
+          <t>Streptomycin/isoniazid</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F405" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G405" t="e">
-        <v>#N/A</v>
+          <t>J04AM01,QJ04AM01</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
+        </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>sthi,sthl,strepto high,streptomycin high</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -25339,52 +25339,52 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>18983-7,35841-6,6933-6,7049-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="B406" t="e">
-        <v>#N/A</v>
+          <t>SUL</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>130313</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Streptomycin/isoniazid</t>
+          <t>Sulbactam</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>J04AM01,QJ04AM01</t>
+          <t>J01CG01,QJ01CG01</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Drugs for treatment of tuberculosis</t>
+          <t>Beta-lactam antibacterials, penicillins</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Combinations of drugs for treatment of tuberculosis</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulbac</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>betamaze,sulbactamum</t>
         </is>
       </c>
       <c r="J406" t="e">
@@ -25393,30 +25393,32 @@
       <c r="K406" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L406" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M406" t="e">
-        <v>#N/A</v>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>41716-2,41717-0,41718-8,41739-4</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SUL</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="B407">
-        <v>130313</v>
+        <v>20055036</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Sulbactam</t>
+          <t>Sulbenicillin</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -25426,7 +25428,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>J01CG01,QJ01CG01</t>
+          <t>J01CA16,QJ01CA16</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -25436,17 +25438,17 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Beta-lactamase inhibitors</t>
+          <t>Penicillins with extended spectrum</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>sulbac</t>
+          <t>sulben</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>betamaze,sulbactamum</t>
+          <t>kedacillin,kedacillina,sulbenicilina,sulbenicilline,sulbenicillinum,sulpelin</t>
         </is>
       </c>
       <c r="J407" t="e">
@@ -25456,7 +25458,7 @@
         <v>#N/A</v>
       </c>
       <c r="L407">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M407" t="inlineStr">
         <is>
@@ -25465,52 +25467,48 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>41716-2,41717-0,41718-8,41739-4</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>SUC</t>
         </is>
       </c>
       <c r="B408">
-        <v>20055036</v>
+        <v>5318</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Sulbenicillin</t>
+          <t>Sulconazole</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Antifungals/antimycotics</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>J01CA16,QJ01CA16</t>
-        </is>
-      </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>Penicillins with extended spectrum</t>
-        </is>
+          <t>D01AC09,QD01AC09</t>
+        </is>
+      </c>
+      <c r="F408" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G408" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>sulben</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>kedacillin,kedacillina,sulbenicilina,sulbenicilline,sulbenicillinum,sulpelin</t>
+          <t>sulconazol,sulconazolum</t>
         </is>
       </c>
       <c r="J408" t="e">
@@ -25519,13 +25517,11 @@
       <c r="K408" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L408">
-        <v>15</v>
-      </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L408" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M408" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -25536,25 +25532,25 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SUC</t>
+          <t>SUP</t>
         </is>
       </c>
       <c r="B409">
-        <v>5318</v>
+        <v>6634</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Sulconazole</t>
+          <t>Sulfachlorpyridazine</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>D01AC09,QD01AC09</t>
+          <t>QJ01EQ12</t>
         </is>
       </c>
       <c r="F409" t="e">
@@ -25565,12 +25561,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulchl</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sulconazol,sulconazolum</t>
+          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone,solfaclorpiridazina,sonilyn,sulfacloropiridazina,sulfaclorpiridazina,vetisulid</t>
         </is>
       </c>
       <c r="J409" t="e">
@@ -25594,48 +25590,54 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SUP</t>
+          <t>SDI</t>
         </is>
       </c>
       <c r="B410">
-        <v>6634</v>
+        <v>5215</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Sulfachlorpyridazine</t>
+          <t>Sulfadiazine</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>QJ01EQ12</t>
-        </is>
-      </c>
-      <c r="F410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G410" t="e">
-        <v>#N/A</v>
+          <t>J01EC02,QJ01EQ10</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Sulfonamides and trimethoprim</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Intermediate-acting sulfonamides</t>
+        </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>sulchl</t>
+          <t>suldia</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone,solfaclorpiridazina,sonilyn,sulfacloropiridazina,sulfaclorpiridazina,vetisulid</t>
-        </is>
-      </c>
-      <c r="J410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K410" t="e">
-        <v>#N/A</v>
+          <t>codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazolone,diazovit,eskadiazine,flamazine,geben,liquadiazine,microsulfon,neazine,neotrizine,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver,silveramide,sliverex,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonsol,sulfose,sulphadiazine,terfonyl,theradiazine,thermazene,trifonamide,trisem,truozine</t>
+        </is>
+      </c>
+      <c r="J410">
+        <v>0.6</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L410" t="e">
         <v>#N/A</v>
@@ -25645,22 +25647,22 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18984-5,27216-1,463-0,464-8,465-5,466-3,59742-7,6907-0,7050-8</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SDI</t>
+          <t>SLT</t>
         </is>
       </c>
       <c r="B411">
-        <v>5215</v>
+        <v>122284</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Sulfadiazine</t>
+          <t>Sulfadiazine/tetroxoprim</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -25670,7 +25672,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>J01EC02,QJ01EQ10</t>
+          <t>J01EE06</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -25680,26 +25682,24 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Intermediate-acting sulfonamides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>suldia</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazolone,diazovit,eskadiazine,flamazine,geben,liquadiazine,microsulfon,neazine,neotrizine,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver,silveramide,sliverex,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonsol,sulfose,sulphadiazine,terfonyl,theradiazine,thermazene,trifonamide,trisem,truozine</t>
-        </is>
-      </c>
-      <c r="J411">
-        <v>0.6</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>berlocombin,cotetroxazine,potesept,trimerazine</t>
+        </is>
+      </c>
+      <c r="J411" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K411" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L411" t="e">
         <v>#N/A</v>
@@ -25709,22 +25709,22 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>18984-5,27216-1,463-0,464-8,465-5,466-3,59742-7,6907-0,7050-8</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SLT</t>
+          <t>SLT1</t>
         </is>
       </c>
       <c r="B412">
-        <v>122284</v>
+        <v>64932</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Sulfadiazine/tetroxoprim</t>
+          <t>Sulfadiazine/trimethoprim</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -25734,7 +25734,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>J01EE06</t>
+          <t>J01EE02,QJ01EW10,QJ51RE01</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -25754,7 +25754,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>berlocombin,cotetroxazine,potesept,trimerazine</t>
+          <t>antastmon,astra,ditrim,ditrivet,sultrisan,triglobe,trimin,tucoprim,uniprim</t>
         </is>
       </c>
       <c r="J412" t="e">
@@ -25778,15 +25778,15 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SLT1</t>
+          <t>SUD</t>
         </is>
       </c>
       <c r="B413">
-        <v>64932</v>
+        <v>5323</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Sulfadiazine/trimethoprim</t>
+          <t>Sulfadimethoxine</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>J01EE02,QJ01EW10,QJ51RE01</t>
+          <t>J01ED01,QJ01EQ09,QP51BA01</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -25806,24 +25806,26 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Long-acting sulfonamides</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sdimet</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>antastmon,astra,ditrim,ditrivet,sultrisan,triglobe,trimin,tucoprim,uniprim</t>
-        </is>
-      </c>
-      <c r="J413" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K413" t="e">
-        <v>#N/A</v>
+          <t>abcid,agribon,albon,arnosulfan,bactotril,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,fuxal,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamidesalt,omnibon,persulfen,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxinesalt,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfastop,sulfoplan,sulforal,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
+        </is>
+      </c>
+      <c r="J413">
+        <v>0.5</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L413" t="e">
         <v>#N/A</v>
@@ -25833,22 +25835,22 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>87799-3,87803-3</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SUD</t>
+          <t>SDM</t>
         </is>
       </c>
       <c r="B414">
-        <v>5323</v>
+        <v>5327</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Sulfadimethoxine</t>
+          <t>Sulfadimidine</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -25858,7 +25860,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>J01ED01,QJ01EQ09,QP51BA01</t>
+          <t>J01EB03,QJ01EQ03,QP51AG01</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -25868,21 +25870,21 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Long-acting sulfonamides</t>
+          <t>Short-acting sulfonamides</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>sdimet</t>
+          <t>suldim</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>abcid,agribon,albon,arnosulfan,bactotril,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,fuxal,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamidesalt,omnibon,persulfen,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxinesalt,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfastop,sulfoplan,sulforal,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
+          <t>azolmetazin,bovibol,calfspan,cremomethazine,diazil,diazilsulfadine,diazyl,dimezathine,intradine,kelametazine,mermeth,neasina,neazina,panazin,pirmazin,primazin,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadimidinun,sulfadine,sulfametazina,sulfametazyny,sulfamethiazine,sulfamezathine,sulfamidine,sulfodimesin,sulfodimezine,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
         </is>
       </c>
       <c r="J414">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -25897,22 +25899,22 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>87799-3,87803-3</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SDM</t>
-        </is>
-      </c>
-      <c r="B415">
-        <v>5327</v>
+          <t>SLT2</t>
+        </is>
+      </c>
+      <c r="B415" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Sulfadimidine</t>
+          <t>Sulfadimidine/trimethoprim</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -25922,7 +25924,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>J01EB03,QJ01EQ03,QP51AG01</t>
+          <t>J01EE05,QJ01EW03</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -25932,26 +25934,24 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Short-acting sulfonamides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>suldim</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>azolmetazin,bovibol,calfspan,cremomethazine,diazil,diazilsulfadine,diazyl,dimezathine,intradine,kelametazine,mermeth,neasina,neazina,panazin,pirmazin,primazin,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadimidinun,sulfadine,sulfametazina,sulfametazyny,sulfamethiazine,sulfamezathine,sulfamidine,sulfodimesin,sulfodimezine,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
-        </is>
-      </c>
-      <c r="J415">
-        <v>4</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J415" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K415" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L415" t="e">
         <v>#N/A</v>
@@ -25968,15 +25968,15 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SLT2</t>
-        </is>
-      </c>
-      <c r="B416" t="e">
-        <v>#N/A</v>
+          <t>SLF</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>5344</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Sulfadimidine/trimethoprim</t>
+          <t>Sulfafurazole</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -25986,7 +25986,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>J01EE05,QJ01EW03</t>
+          <t>J01EB05,QJ01EQ05,QS01AB02,S01AB02</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -25996,30 +25996,34 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Short-acting sulfonamides</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sfsz</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L416" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M416" t="e">
-        <v>#N/A</v>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,entusil,entusul,ganda,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazol,novazolo,novosaxazole,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxoxol,saxosozine,sodizole,solfafurazolo,sosol,soxamide,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan</t>
+        </is>
+      </c>
+      <c r="J416">
+        <v>4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L416">
+        <v>4</v>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -26030,15 +26034,15 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SLF</t>
+          <t>SLF1</t>
         </is>
       </c>
       <c r="B417">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Sulfafurazole</t>
+          <t>Sulfaisodimidine</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -26048,7 +26052,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>J01EB05,QJ01EQ05,QS01AB02,S01AB02</t>
+          <t>J01EB01</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -26063,12 +26067,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>sfsz</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,entusil,entusul,ganda,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazol,novazolo,novosaxazole,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxoxol,saxosozine,sodizole,solfafurazolo,sosol,soxamide,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan</t>
+          <t>aristamid,aristamide,aristogyn,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,isosulf,mefenal,solfisomidina,sulfadimetine,sulfaisodimerazine,sulfaisodimidinum,sulfaisomidine,sulfasomidine,sulfisomidin,sulfisomidina,sulfisomidine,sulfisomidinum,sulphasomidine</t>
         </is>
       </c>
       <c r="J417">
@@ -26096,15 +26100,15 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SLF1</t>
+          <t>SLF2</t>
         </is>
       </c>
       <c r="B418">
-        <v>5343</v>
+        <v>9047</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Sulfaisodimidine</t>
+          <t>Sulfalene</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -26114,7 +26118,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>J01EB01</t>
+          <t>J01ED02,QJ01EQ19</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -26124,7 +26128,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Short-acting sulfonamides</t>
+          <t>Long-acting sulfonamides</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -26134,24 +26138,22 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aristamid,aristamide,aristogyn,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,isosulf,mefenal,solfisomidina,sulfadimetine,sulfaisodimerazine,sulfaisodimidinum,sulfaisomidine,sulfasomidine,sulfisomidin,sulfisomidina,sulfisomidine,sulfisomidinum,sulphasomidine</t>
+          <t>dalysep,farmitalia,kelfizin,kelfizina,kelfizine,policydal,solfametopirazina,sulfalen,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
         </is>
       </c>
       <c r="J418">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L418">
-        <v>4</v>
-      </c>
-      <c r="M418" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L418" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M418" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -26162,15 +26164,15 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SLF2</t>
+          <t>SZO</t>
         </is>
       </c>
       <c r="B419">
-        <v>9047</v>
+        <v>187764</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Sulfalene</t>
+          <t>Sulfamazone</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -26180,7 +26182,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>J01ED02,QJ01EQ19</t>
+          <t>J01ED09</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -26200,11 +26202,11 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>dalysep,farmitalia,kelfizin,kelfizina,kelfizine,policydal,solfametopirazina,sulfalen,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
+          <t>sulfamazona,sulfamazonum,sulfenazone</t>
         </is>
       </c>
       <c r="J419">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -26226,15 +26228,15 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SZO</t>
+          <t>SLF3</t>
         </is>
       </c>
       <c r="B420">
-        <v>187764</v>
+        <v>5325</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Sulfamazone</t>
+          <t>Sulfamerazine</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -26244,7 +26246,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>J01ED09</t>
+          <t>D06BA06,J01ED07,QD06BA06,QJ01EQ17</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -26259,16 +26261,16 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulmet</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sulfamazona,sulfamazonum,sulfenazone</t>
+          <t>cremomerazine,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,percoccide,pyralcid,romezin,septacil,septosyl,solfamerazina,solumedin,solumedine,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine</t>
         </is>
       </c>
       <c r="J420">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -26290,15 +26292,15 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SLF3</t>
-        </is>
-      </c>
-      <c r="B421">
-        <v>5325</v>
+          <t>SLT3</t>
+        </is>
+      </c>
+      <c r="B421" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Sulfamerazine</t>
+          <t>Sulfamerazine/trimethoprim</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -26308,7 +26310,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>D06BA06,J01ED07,QD06BA06,QJ01EQ17</t>
+          <t>J01EE07,QJ01EW18</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -26318,26 +26320,24 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>Long-acting sulfonamides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>sulmet</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>cremomerazine,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,percoccide,pyralcid,romezin,septacil,septosyl,solfamerazina,solumedin,solumedine,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine</t>
-        </is>
-      </c>
-      <c r="J421">
-        <v>3</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J421" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K421" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L421" t="e">
         <v>#N/A</v>
@@ -26354,36 +26354,32 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SLT3</t>
-        </is>
-      </c>
-      <c r="B422" t="e">
-        <v>#N/A</v>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B422">
+        <v>5327</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Sulfamerazine/trimethoprim</t>
+          <t>Sulfamethazine</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>J01EE07,QJ01EW18</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>Sulfonamides and trimethoprim</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F422" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G422" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
@@ -26409,55 +26405,61 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>87592-2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>SLF4</t>
         </is>
       </c>
       <c r="B423">
-        <v>5327</v>
+        <v>5328</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Sulfamethazine</t>
+          <t>Sulfamethizole</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F423" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G423" t="e">
-        <v>#N/A</v>
+          <t>B05CA04,D06BA04,J01EB02,QB05CA04,QD06BA04,QJ01EQ02,QS01AB01,S01AB01</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Sulfonamides and trimethoprim</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sfmz</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J423" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K423" t="e">
-        <v>#N/A</v>
+          <t>aethazolum,ayerlucil,berlophen,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizolum,lucosil,microsul,proklar,renasul,rufol,salimol,sethadil,solfametizolo,solfetidolo,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+        </is>
+      </c>
+      <c r="J423">
+        <v>4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L423" t="e">
         <v>#N/A</v>
@@ -26467,22 +26469,22 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>87592-2</t>
+          <t>60175-7,60176-5,60177-3</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SLF4</t>
+          <t>SMX</t>
         </is>
       </c>
       <c r="B424">
-        <v>5328</v>
+        <v>5329</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Sulfamethizole</t>
+          <t>Sulfamethoxazole</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -26492,7 +26494,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>B05CA04,D06BA04,J01EB02,QB05CA04,QD06BA04,QJ01EQ02,QS01AB01,S01AB01</t>
+          <t>J01EC01,QJ01EQ11</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -26502,21 +26504,21 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Short-acting sulfonamides</t>
+          <t>Intermediate-acting sulfonamides</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>sfmz</t>
+          <t>sfmx,sulf,sulfam</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aethazolum,ayerlucil,berlophen,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizolum,lucosil,microsul,proklar,renasul,rufol,salimol,sethadil,solfametizolo,solfetidolo,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+          <t>septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulphisomezole,urobak</t>
         </is>
       </c>
       <c r="J424">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -26531,22 +26533,22 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>60175-7,60176-5,60177-3</t>
+          <t>10342-4,11577-4,18985-2,25271-8,39772-9,467-1,468-9,469-7,470-5,59971-2,59972-0,60333-2,72674-5,80549-9,80974-9</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SMX</t>
+          <t>SLF5</t>
         </is>
       </c>
       <c r="B425">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole</t>
+          <t>Sulfamethoxypyridazine</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -26556,7 +26558,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>J01EC01,QJ01EQ11</t>
+          <t>J01ED05,QJ01EQ15</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -26566,21 +26568,21 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Intermediate-acting sulfonamides</t>
+          <t>Long-acting sulfonamides</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>sfmx,sulf,sulfam</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulphisomezole,urobak</t>
+          <t>altezol,cysul,davosin,depovernil,durox,kineks,kinex,kynex,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,opinsul,paramid,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,succinylsulfathi,sulfalex,sulfapiridazin,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
         </is>
       </c>
       <c r="J425">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -26595,22 +26597,22 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>10342-4,11577-4,18985-2,25271-8,39772-9,467-1,468-9,469-7,470-5,59971-2,59972-0,60333-2,72674-5,80549-9,80974-9</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SLF5</t>
+          <t>SLF6</t>
         </is>
       </c>
       <c r="B426">
-        <v>5330</v>
+        <v>19596</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Sulfamethoxypyridazine</t>
+          <t>Sulfametomidine</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -26620,7 +26622,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>J01ED05,QJ01EQ15</t>
+          <t>J01ED03</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -26640,16 +26642,14 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>altezol,cysul,davosin,depovernil,durox,kineks,kinex,kynex,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,opinsul,paramid,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,succinylsulfathi,sulfalex,sulfapiridazin,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
-        </is>
-      </c>
-      <c r="J426">
-        <v>0.5</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>duroprocin,methofadin,methofazine,solfametomidina,sulfametomidin,sulfametomidina,sulfametomidinum,telemid</t>
+        </is>
+      </c>
+      <c r="J426" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K426" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L426" t="e">
         <v>#N/A</v>
@@ -26666,15 +26666,15 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SLF6</t>
+          <t>SLF7</t>
         </is>
       </c>
       <c r="B427">
-        <v>19596</v>
+        <v>5326</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Sulfametomidine</t>
+          <t>Sulfametoxydiazine</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>J01ED03</t>
+          <t>J01ED04</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -26704,14 +26704,16 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>duroprocin,methofadin,methofazine,solfametomidina,sulfametomidin,sulfametomidina,sulfametomidinum,telemid</t>
-        </is>
-      </c>
-      <c r="J427" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K427" t="e">
-        <v>#N/A</v>
+          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,kiron,longasulf,methoxypyrimal,solfametossidiazina,sulfameter,sulfametersalt,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazinum,sulla,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
+        </is>
+      </c>
+      <c r="J427">
+        <v>0.5</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L427" t="e">
         <v>#N/A</v>
@@ -26728,15 +26730,15 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SLF7</t>
-        </is>
-      </c>
-      <c r="B428">
-        <v>5326</v>
+          <t>SLT4</t>
+        </is>
+      </c>
+      <c r="B428" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Sulfametoxydiazine</t>
+          <t>Sulfametrole/trimethoprim</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -26746,7 +26748,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>J01ED04</t>
+          <t>J01EE03</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -26756,26 +26758,24 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Long-acting sulfonamides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>trsm</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,kiron,longasulf,methoxypyrimal,solfametossidiazina,sulfameter,sulfametersalt,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazinum,sulla,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
-        </is>
-      </c>
-      <c r="J428">
-        <v>0.5</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J428" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K428" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L428" t="e">
         <v>#N/A</v>
@@ -26792,15 +26792,15 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SLT4</t>
-        </is>
-      </c>
-      <c r="B429" t="e">
-        <v>#N/A</v>
+          <t>SLF8</t>
+        </is>
+      </c>
+      <c r="B429">
+        <v>12894</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Sulfametrole/trimethoprim</t>
+          <t>Sulfamoxole</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>J01EE03</t>
+          <t>J01EC03</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -26820,30 +26820,34 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Intermediate-acting sulfonamides</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>trsm</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M429" t="e">
-        <v>#N/A</v>
+          <t>enterocura,justamil,oxasulfa,solfaguanolo,solfamossolo,sulfadimethyloxazole,sulfaguanol,sulfaguanole,sulfaguanolum,sulfamoxol,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
+        </is>
+      </c>
+      <c r="J429">
+        <v>1</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L429">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -26854,15 +26858,15 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SLF8</t>
-        </is>
-      </c>
-      <c r="B430">
-        <v>12894</v>
+          <t>SLT5</t>
+        </is>
+      </c>
+      <c r="B430" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Sulfamoxole</t>
+          <t>Sulfamoxole/trimethoprim</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -26872,7 +26876,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>J01EC03</t>
+          <t>J01EE04</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -26882,7 +26886,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>Intermediate-acting sulfonamides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -26892,24 +26896,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>enterocura,justamil,oxasulfa,solfaguanolo,solfamossolo,sulfadimethyloxazole,sulfaguanol,sulfaguanole,sulfaguanolum,sulfamoxol,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
-        </is>
-      </c>
-      <c r="J430">
-        <v>1</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L430">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J430" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K430" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L430" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M430" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -26920,15 +26920,15 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SLT5</t>
-        </is>
-      </c>
-      <c r="B431" t="e">
-        <v>#N/A</v>
+          <t>SLF9</t>
+        </is>
+      </c>
+      <c r="B431">
+        <v>5333</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Sulfamoxole/trimethoprim</t>
+          <t>Sulfanilamide</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>J01EE04</t>
+          <t>D06BA05,J01EB06,QD06BA05,QJ01EQ06</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Short-acting sulfonamides</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,fourneau,gerison,gombardol,hydroxysulfonamide,infepan,lusil,lysococcine,neococcyl,orgaseptine,prontalbin,prontylin,proseptal,proseptine,proseptol,pysococcine,sanamid,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocide,streptocidum,streptoclase,streptocom,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamida,sulfanilamidomethan,sulfanilamidum,sulfanimide,sulfocidin,sulfocidine,sulfonylamide,sulphanilamide,sulphanilamidum,sulphonamide,therapol,tolder</t>
         </is>
       </c>
       <c r="J431" t="e">
@@ -26982,15 +26982,15 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SLF9</t>
+          <t>SLF10</t>
         </is>
       </c>
       <c r="B432">
-        <v>5333</v>
+        <v>68933</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Sulfanilamide</t>
+          <t>Sulfaperin</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -27000,7 +27000,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>D06BA05,J01EB06,QD06BA05,QJ01EQ06</t>
+          <t>J01ED06</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Short-acting sulfonamides</t>
+          <t>Long-acting sulfonamides</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -27020,14 +27020,16 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,fourneau,gerison,gombardol,hydroxysulfonamide,infepan,lusil,lysococcine,neococcyl,orgaseptine,prontalbin,prontylin,proseptal,proseptine,proseptol,pysococcine,sanamid,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocide,streptocidum,streptoclase,streptocom,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamida,sulfanilamidomethan,sulfanilamidum,sulfanimide,sulfocidin,sulfocidine,sulfonylamide,sulphanilamide,sulphanilamidum,sulphonamide,therapol,tolder</t>
-        </is>
-      </c>
-      <c r="J432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K432" t="e">
-        <v>#N/A</v>
+          <t>anastaf,archisulfa,archisulpha,avissul,chemiopen,demosulfan,demosulphan,durisan,isosulfamerazine,isosulphamerazine,methylsulfadiazin,methylsulfadiazine,methylsulphadiazine,novosul,orosulfan,pallidin,retardon,risulfasens,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,sulphaperin,sulphaperina,sulphaperinum</t>
+        </is>
+      </c>
+      <c r="J432">
+        <v>0.5</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L432" t="e">
         <v>#N/A</v>
@@ -27044,15 +27046,15 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SLF10</t>
+          <t>SLF11</t>
         </is>
       </c>
       <c r="B433">
-        <v>68933</v>
+        <v>5335</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Sulfaperin</t>
+          <t>Sulfaphenazole</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -27062,7 +27064,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>J01ED06</t>
+          <t>J01ED08,QJ01EQ08</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -27082,11 +27084,11 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>anastaf,archisulfa,archisulpha,avissul,chemiopen,demosulfan,demosulphan,durisan,isosulfamerazine,isosulphamerazine,methylsulfadiazin,methylsulfadiazine,methylsulphadiazine,novosul,orosulfan,pallidin,retardon,risulfasens,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,sulphaperin,sulphaperina,sulphaperinum</t>
+          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,merian,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
         </is>
       </c>
       <c r="J433">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -27108,15 +27110,15 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SLF11</t>
+          <t>SLF12</t>
         </is>
       </c>
       <c r="B434">
-        <v>5335</v>
+        <v>5336</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Sulfaphenazole</t>
+          <t>Sulfapyridine</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -27126,7 +27128,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>J01ED08,QJ01EQ08</t>
+          <t>J01EB04,QJ01EQ04</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -27136,7 +27138,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Long-acting sulfonamides</t>
+          <t>Short-acting sulfonamides</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -27146,7 +27148,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,merian,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
+          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,ronin,septipulmon,solfapiridina,soludagenan,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
         </is>
       </c>
       <c r="J434">
@@ -27165,43 +27167,39 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>14075-6,55580-5</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SLF12</t>
+          <t>SNA</t>
         </is>
       </c>
       <c r="B435">
-        <v>5336</v>
+        <v>60582</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Sulfapyridine</t>
+          <t>Sulfasuccinamide</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>J01EB04,QJ01EQ04</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>Sulfonamides and trimethoprim</t>
-        </is>
-      </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>Short-acting sulfonamides</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F435" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G435" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
@@ -27210,16 +27208,14 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,ronin,septipulmon,solfapiridina,soludagenan,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
-        </is>
-      </c>
-      <c r="J435">
-        <v>1</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>sulfasuccinamid,sulfasuccinamida,sulfasuccinamidum</t>
+        </is>
+      </c>
+      <c r="J435" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K435" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L435" t="e">
         <v>#N/A</v>
@@ -27229,48 +27225,52 @@
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>14075-6,55580-5</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>SUT</t>
         </is>
       </c>
       <c r="B436">
-        <v>60582</v>
+        <v>5340</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Sulfasuccinamide</t>
+          <t>Sulfathiazole</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G436" t="e">
-        <v>#N/A</v>
+          <t>D06BA02,J01EB07,QD06BA02,QJ01EQ07</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Sulfonamides and trimethoprim</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulthi</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sulfasuccinamid,sulfasuccinamida,sulfasuccinamidum</t>
+          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,planomide,poliseptil,sanotiazol,septozol,solfatiazolo,soluthiazomide,streptosilthiazole,sulfamul,sulfaplex,sulfathiazol,sulfathiazolesalt,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,wintrazole</t>
         </is>
       </c>
       <c r="J436" t="e">
@@ -27287,22 +27287,22 @@
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>87591-4,87796-9,87797-7</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SUT</t>
+          <t>SLF13</t>
         </is>
       </c>
       <c r="B437">
-        <v>5340</v>
+        <v>3000579</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Sulfathiazole</t>
+          <t>Sulfathiourea</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -27312,7 +27312,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>D06BA02,J01EB07,QD06BA02,QJ01EQ07</t>
+          <t>J01EB08</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -27327,19 +27327,21 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>sulthi</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,planomide,poliseptil,sanotiazol,septozol,solfatiazolo,soluthiazomide,streptosilthiazole,sulfamul,sulfaplex,sulfathiazol,sulfathiazolesalt,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,wintrazole</t>
-        </is>
-      </c>
-      <c r="J437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K437" t="e">
-        <v>#N/A</v>
+          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathioureasalt,sulfathiouree,sulfatiourea,sulphathiourea</t>
+        </is>
+      </c>
+      <c r="J437">
+        <v>6</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L437" t="e">
         <v>#N/A</v>
@@ -27349,61 +27351,55 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>87591-4,87796-9,87797-7</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SLF13</t>
+          <t>SOX</t>
         </is>
       </c>
       <c r="B438">
-        <v>3000579</v>
+        <v>5344</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Sulfathiourea</t>
+          <t>Sulfisoxazole</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>J01EB08</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>Sulfonamides and trimethoprim</t>
-        </is>
-      </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>Short-acting sulfonamides</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F438" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G438" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>sulfiz</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathioureasalt,sulfathiouree,sulfatiourea,sulphathiourea</t>
-        </is>
-      </c>
-      <c r="J438">
-        <v>6</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J438" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K438" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L438" t="e">
         <v>#N/A</v>
@@ -27413,22 +27409,22 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11578-2,18986-0,25226-2,471-3,472-1,473-9,474-7,9701-4</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SOX</t>
+          <t>SSS</t>
         </is>
       </c>
       <c r="B439">
-        <v>5344</v>
+        <v>86225</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Sulfisoxazole</t>
+          <t>Sulfonamide</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -27449,7 +27445,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>sulfiz</t>
+          <t>sfna,sulami</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -27471,22 +27467,22 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>11578-2,18986-0,25226-2,471-3,472-1,473-9,474-7,9701-4</t>
+          <t>17674-3,17675-0,18987-8,35842-4,4040-2,4041-0,4042-8,475-4,476-2,477-0,478-8,75650-2</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SSS</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B440">
-        <v>86225</v>
+        <v>9950244</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Sulfonamide</t>
+          <t>Sulopenem</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -27507,12 +27503,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>sfna,sulami</t>
+          <t>sulope</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>orlynvah</t>
         </is>
       </c>
       <c r="J440" t="e">
@@ -27529,55 +27525,61 @@
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>17674-3,17675-0,18987-8,35842-4,4040-2,4041-0,4042-8,475-4,476-2,477-0,478-8,75650-2</t>
+          <t>55289-3,55290-1,55291-9</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>SLT6</t>
         </is>
       </c>
       <c r="B441">
-        <v>9950244</v>
+        <v>444022</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Sulopenem</t>
+          <t>Sultamicillin</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G441" t="e">
-        <v>#N/A</v>
+          <t>J01CR04,QJ01CR04</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Beta-lactam antibacterials, penicillins</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>sulope</t>
+          <t>sultos</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>orlynvah</t>
-        </is>
-      </c>
-      <c r="J441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K441" t="e">
-        <v>#N/A</v>
+          <t>combisid,sultamicilina,sultamicilline,sultamicillinum,unacid</t>
+        </is>
+      </c>
+      <c r="J441">
+        <v>1.5</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L441" t="e">
         <v>#N/A</v>
@@ -27587,61 +27589,55 @@
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>55289-3,55290-1,55291-9</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SLT6</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B442">
-        <v>444022</v>
+        <v>46700778</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Sultamicillin</t>
+          <t>Surotomycin</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>J01CR04,QJ01CR04</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F442" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G442" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>sultos</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>combisid,sultamicilina,sultamicilline,sultamicillinum,unacid</t>
-        </is>
-      </c>
-      <c r="J442">
-        <v>1.5</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>surotomicina,surotomycine</t>
+        </is>
+      </c>
+      <c r="J442" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K442" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L442" t="e">
         <v>#N/A</v>
@@ -27658,32 +27654,36 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="B443">
-        <v>46700778</v>
+        <v>71447</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Surotomycin</t>
+          <t>Talampicillin</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F443" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G443" t="e">
-        <v>#N/A</v>
+          <t>J01CA15,QJ01CA15</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Beta-lactam antibacterials, penicillins</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
@@ -27692,14 +27692,16 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>surotomicina,surotomycine</t>
-        </is>
-      </c>
-      <c r="J443" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K443" t="e">
-        <v>#N/A</v>
+          <t>aseocillin,phthalidyl,talampicilina,talampicilline,talampicillinum,talpen,yamacillin</t>
+        </is>
+      </c>
+      <c r="J443">
+        <v>2</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L443" t="e">
         <v>#N/A</v>
@@ -27709,43 +27711,39 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18988-6,479-6,480-4,481-2,482-0</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>TLP</t>
         </is>
       </c>
       <c r="B444">
-        <v>71447</v>
+        <v>163307</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Talampicillin</t>
+          <t>Talmetoprim</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>J01CA15,QJ01CA15</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>Penicillins with extended spectrum</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F444" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G444" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
@@ -27754,16 +27752,14 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aseocillin,phthalidyl,talampicilina,talampicilline,talampicillinum,talpen,yamacillin</t>
-        </is>
-      </c>
-      <c r="J444">
-        <v>2</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J444" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K444" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L444" t="e">
         <v>#N/A</v>
@@ -27773,48 +27769,52 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>18988-6,479-6,480-4,481-2,482-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>TLP</t>
+          <t>TAZ</t>
         </is>
       </c>
       <c r="B445">
-        <v>163307</v>
+        <v>123630</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Talmetoprim</t>
+          <t>Tazobactam</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F445" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G445" t="e">
-        <v>#N/A</v>
+          <t>J01CG02,QJ01CG02</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Beta-lactam antibacterials, penicillins</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Beta-lactamase inhibitors</t>
+        </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tazo,tazoba</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>exblifep,tazobactamsalt,tazobactamum,tazobactum</t>
         </is>
       </c>
       <c r="J445" t="e">
@@ -27831,52 +27831,48 @@
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>41719-6,41720-4,41721-2,41740-2</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>TAZ</t>
+          <t>TBP</t>
         </is>
       </c>
       <c r="B446">
-        <v>123630</v>
+        <v>9800194</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Tazobactam</t>
+          <t>Tebipenem</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>J01CG02,QJ01CG02</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
-        </is>
-      </c>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>Beta-lactamase inhibitors</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F446" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G446" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>tazo,tazoba</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>exblifep,tazobactamsalt,tazobactamum,tazobactum</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J446" t="e">
@@ -27893,90 +27889,98 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>41719-6,41720-4,41721-2,41740-2</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TBP</t>
+          <t>TZD</t>
         </is>
       </c>
       <c r="B447">
-        <v>9800194</v>
+        <v>11234049</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Tebipenem</t>
+          <t>Tedizolid</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Oxazolidinones</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G447" t="e">
-        <v>#N/A</v>
+          <t>J01XX11,QJ01XX11</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tedi</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L447" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M447" t="e">
-        <v>#N/A</v>
+          <t>torezolid</t>
+        </is>
+      </c>
+      <c r="J447">
+        <v>0.2</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L447">
+        <v>0.2</v>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>73586-0,73608-2,73631-4</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TZD</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="B448">
-        <v>11234049</v>
+        <v>16131923</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Tedizolid</t>
+          <t>Teicoplanin</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Oxazolidinones</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>J01XX11,QJ01XX11</t>
+          <t>J01XA02,QJ01XA02</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -27986,29 +27990,27 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Glycopeptide antibacterials</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>tedi</t>
+          <t>tec,tei,teic,teicop,tp,tpl,tpn</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>torezolid</t>
-        </is>
-      </c>
-      <c r="J448">
-        <v>0.2</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J448" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K448" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L448">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
@@ -28017,22 +28019,22 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>73586-0,73608-2,73631-4</t>
+          <t>18989-4,25534-9,25535-6,34378-0,34379-8,4043-6,483-8,484-6,485-3,486-1,7051-6,80968-1</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TEC</t>
-        </is>
-      </c>
-      <c r="B449">
-        <v>16131923</v>
+          <t>TCM</t>
+        </is>
+      </c>
+      <c r="B449" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Teicoplanin</t>
+          <t>Teicoplanin-macromethod</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -28042,22 +28044,18 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>J01XA02,QJ01XA02</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>Glycopeptide antibacterials</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F449" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G449" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>tec,tei,teic,teicop,tp,tpl,tpn</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -28071,32 +28069,30 @@
       <c r="K449" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L449">
-        <v>0.4</v>
-      </c>
-      <c r="M449" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L449" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M449" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>18989-4,25534-9,25535-6,34378-0,34379-8,4043-6,483-8,484-6,485-3,486-1,7051-6,80968-1</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TCM</t>
-        </is>
-      </c>
-      <c r="B450" t="e">
-        <v>#N/A</v>
+          <t>TLV</t>
+        </is>
+      </c>
+      <c r="B450">
+        <v>3081362</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Teicoplanin-macromethod</t>
+          <t>Telavancin</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -28106,23 +28102,27 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F450" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G450" t="e">
-        <v>#N/A</v>
+          <t>J01XA03,QJ01XA03</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tela,telava</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>arbelic,nvancomycin,televancin</t>
         </is>
       </c>
       <c r="J450" t="e">
@@ -28139,59 +28139,61 @@
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>72894-9,73630-6,85051-1,88886-7</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="B451">
-        <v>3081362</v>
+        <v>3002190</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Telavancin</t>
+          <t>Telithromycin</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>J01XA03,QJ01XA03</t>
+          <t>J01FA15,QJ01FA15</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides, lincosamides and streptogramins</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Glycopeptide antibacterials</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>tela,telava</t>
+          <t>teli,telith</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>arbelic,nvancomycin,televancin</t>
-        </is>
-      </c>
-      <c r="J451" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K451" t="e">
-        <v>#N/A</v>
+          <t>ketek,levviax</t>
+        </is>
+      </c>
+      <c r="J451">
+        <v>0.8</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L451" t="e">
         <v>#N/A</v>
@@ -28201,52 +28203,52 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>72894-9,73630-6,85051-1,88886-7</t>
+          <t>35843-2,35844-0,35845-7,41722-0</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>TMX</t>
         </is>
       </c>
       <c r="B452">
-        <v>3002190</v>
+        <v>60021</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Telithromycin</t>
+          <t>Temafloxacin</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>J01FA15,QJ01FA15</t>
+          <t>J01MA05,QJ01MA05</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Macrolides, lincosamides and streptogramins</t>
+          <t>Quinolone antibacterials</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>teli,telith</t>
+          <t>tema,temafl</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>ketek,levviax</t>
+          <t>omniflox,temafloxacina,temafloxacine,temafloxacino,temafloxacinum</t>
         </is>
       </c>
       <c r="J452">
@@ -28265,150 +28267,150 @@
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>35843-2,35844-0,35845-7,41722-0</t>
+          <t>18990-2,487-9,488-7,489-5,490-3</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TMX</t>
+          <t>TEM</t>
         </is>
       </c>
       <c r="B453">
-        <v>60021</v>
+        <v>171758</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Temafloxacin</t>
+          <t>Temocillin</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>J01MA05,QJ01MA05</t>
+          <t>J01CA17,QJ01CA17</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Quinolone antibacterials</t>
+          <t>Beta-lactam antibacterials, penicillins</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Penicillins with extended spectrum</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>tema,temafl</t>
+          <t>temo,temoci</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>omniflox,temafloxacina,temafloxacine,temafloxacino,temafloxacinum</t>
-        </is>
-      </c>
-      <c r="J453">
-        <v>0.8</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L453" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M453" t="e">
-        <v>#N/A</v>
+          <t>negaban,temocilina,temocillina,temocilline,temocillinum</t>
+        </is>
+      </c>
+      <c r="J453" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K453" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L453">
+        <v>4</v>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>18990-2,487-9,488-7,489-5,490-3</t>
+          <t>18991-0,491-1,492-9,493-7,494-5,54190-4</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>TRB</t>
         </is>
       </c>
       <c r="B454">
-        <v>171758</v>
+        <v>1549008</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Temocillin</t>
+          <t>Terbinafine</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Antifungals/antimycotics</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>J01CA17,QJ01CA17</t>
+          <t>D01AE15,D01BA02,QD01AE15,QD01BA02</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
+          <t>Antifungals for systemic use</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>Penicillins with extended spectrum</t>
+          <t>Antifungals for systemic use</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>temo,temoci</t>
+          <t>terb</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>negaban,temocilina,temocillina,temocilline,temocillinum</t>
-        </is>
-      </c>
-      <c r="J454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L454">
-        <v>4</v>
-      </c>
-      <c r="M454" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>afogan,bramazil,bramizil,corbinal,lamasil,lamisil,muzonal,shoprite,terbina,terbinafina,terbinafinum,terbine,terbinex,terbisil,zabel</t>
+        </is>
+      </c>
+      <c r="J454">
+        <v>0.25</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L454" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M454" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>18991-0,491-1,492-9,493-7,494-5,54190-4</t>
+          <t>10720-1,10721-9,18992-8</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>TRC</t>
         </is>
       </c>
       <c r="B455">
-        <v>1549008</v>
+        <v>441383</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Terbinafine</t>
+          <t>Terconazole</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -28418,36 +28420,30 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>D01AE15,D01BA02,QD01AE15,QD01BA02</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>Antifungals for systemic use</t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>Antifungals for systemic use</t>
-        </is>
+          <t>G01AG02,QG01AG02</t>
+        </is>
+      </c>
+      <c r="F455" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G455" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>terb</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>afogan,bramazil,bramizil,corbinal,lamasil,lamisil,muzonal,shoprite,terbina,terbinafina,terbinafinum,terbine,terbinex,terbisil,zabel</t>
-        </is>
-      </c>
-      <c r="J455">
-        <v>0.25</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>fungistat,panlomyc,terazol,terconazol,terconazolum,tercospor,tetrazol,triaconazole,zazole</t>
+        </is>
+      </c>
+      <c r="J455" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K455" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L455" t="e">
         <v>#N/A</v>
@@ -28457,39 +28453,43 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>10720-1,10721-9,18992-8</t>
+          <t>55196-0</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TRC</t>
+          <t>TRZ</t>
         </is>
       </c>
       <c r="B456">
-        <v>441383</v>
+        <v>65720</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Terconazole</t>
+          <t>Terizidone</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>G01AG02,QG01AG02</t>
-        </is>
-      </c>
-      <c r="F456" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G456" t="e">
-        <v>#N/A</v>
+          <t>J04AK03,QJ04AK03</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>fungistat,panlomyc,terazol,terconazol,terconazolum,tercospor,tetrazol,triaconazole,zazole</t>
+          <t>terivalidin,terizidona,terizidonum</t>
         </is>
       </c>
       <c r="J456" t="e">
@@ -28515,84 +28515,88 @@
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>55196-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>TRZ</t>
+          <t>TCY</t>
         </is>
       </c>
       <c r="B457">
-        <v>65720</v>
+        <v>54675776</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Terizidone</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>J04AK03,QJ04AK03</t>
+          <t>A01AB13,D06AA04,J01AA07,QA01AB13,QD06AA04,QG01AA90,QG51AA02,QJ01AA07,QJ51AA07,QS01AA09,QS02AA08,QS03AA02,S01AA09,S02AA08,S03AA02</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Drugs for treatment of tuberculosis</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Other drugs for treatment of tuberculosis</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tc,te,tet,tetcyc,tetr,tetra</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>terivalidin,terizidona,terizidonum</t>
-        </is>
-      </c>
-      <c r="J457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M457" t="e">
-        <v>#N/A</v>
+          <t>abramycin,abricycline,agromicina,ambramicina,ambramycin,biocycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,democracin,deschlorobiomycin,economycin,hostacyclin,lexacycline,limecycline,liquamycin,mericycline,micycline,neocycline,omegamycin,orlycycline,panmycin,purocyclina,roviciclina,solvocin,tetrabon,tetraciclina,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetraverine,tetrazyklin,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum</t>
+        </is>
+      </c>
+      <c r="J457">
+        <v>1</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L457">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>101504-9,18993-6,25272-6,4045-1,495-2,496-0,497-8,498-6,7052-4,87590-6</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>TCY</t>
-        </is>
-      </c>
-      <c r="B458">
-        <v>54675776</v>
+          <t>TCY-S</t>
+        </is>
+      </c>
+      <c r="B458" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Tetracycline screening test</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -28602,84 +28606,80 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>A01AB13,D06AA04,J01AA07,QA01AB13,QD06AA04,QG01AA90,QG51AA02,QJ01AA07,QJ51AA07,QS01AA09,QS02AA08,QS03AA02,S01AA09,S02AA08,S03AA02</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>Tetracyclines</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>Tetracyclines</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F458" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G458" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>tc,te,tet,tetcyc,tetr,tetra</t>
+          <t>tcy screen</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>abramycin,abricycline,agromicina,ambramicina,ambramycin,biocycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,democracin,deschlorobiomycin,economycin,hostacyclin,lexacycline,limecycline,liquamycin,mericycline,micycline,neocycline,omegamycin,orlycycline,panmycin,purocyclina,roviciclina,solvocin,tetrabon,tetraciclina,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetraverine,tetrazyklin,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum</t>
-        </is>
-      </c>
-      <c r="J458">
-        <v>1</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L458">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J458" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K458" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L458" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M458" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>101504-9,18993-6,25272-6,4045-1,495-2,496-0,497-8,498-6,7052-4,87590-6</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>TCY-S</t>
-        </is>
-      </c>
-      <c r="B459" t="e">
-        <v>#N/A</v>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="B459">
+        <v>54691494</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Tetracycline screening test</t>
+          <t>Tetracycline/oleandomycin</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F459" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G459" t="e">
-        <v>#N/A</v>
+          <t>J01RA08,QJ01RA08</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>tcy screen</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -28708,15 +28708,15 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>TET</t>
         </is>
       </c>
       <c r="B460">
-        <v>54691494</v>
+        <v>65450</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Tetracycline/oleandomycin</t>
+          <t>Tetroxoprim</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -28726,18 +28726,14 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>J01RA08,QJ01RA08</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>Combinations of antibacterials</t>
-        </is>
-      </c>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>Combinations of antibacterials</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F460" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G460" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
@@ -28746,7 +28742,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>primsol,tetroxoprima,tetroxoprime,tetroxoprimum,trimpex,trimplex</t>
         </is>
       </c>
       <c r="J460" t="e">
@@ -28770,20 +28766,20 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>TET</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B461">
-        <v>65450</v>
+        <v>9568512</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Tetroxoprim</t>
+          <t>Thiacetazone</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Oxazolidinones</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -28804,7 +28800,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>primsol,tetroxoprima,tetroxoprime,tetroxoprimum,trimpex,trimplex</t>
+          <t>acetanilide,aktivan,ambathizon,amitiozon,antib,benthiozone,benzothiozane,benzothiozon,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mivizon,myvizone,neotibil,neustab,novakol,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebethion,tebethione,tebezon,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibon,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal,tubin</t>
         </is>
       </c>
       <c r="J461" t="e">
@@ -28821,146 +28817,150 @@
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32384-0,54184-7,54204-3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>THI</t>
         </is>
       </c>
       <c r="B462">
-        <v>9568512</v>
+        <v>27200</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Thiacetazone</t>
+          <t>Thiamphenicol</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Oxazolidinones</t>
+          <t>Phenicols</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G462" t="e">
-        <v>#N/A</v>
+          <t>J01BA02,QJ01BA02,QJ51BA02</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Amphenicols</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Amphenicols</t>
+        </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>thiaph</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>acetanilide,aktivan,ambathizon,amitiozon,antib,benthiozone,benzothiozane,benzothiozon,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mivizon,myvizone,neotibil,neustab,novakol,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebethion,tebethione,tebezon,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibon,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal,tubin</t>
-        </is>
-      </c>
-      <c r="J462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L462" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M462" t="e">
-        <v>#N/A</v>
+          <t>armai,dextrosulfenidol,dextrosulphenidol,igralin,racefenicol,racefenicolo,racefenicolum,raceophenidol,thiamphenicolum,thiocymetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamycine</t>
+        </is>
+      </c>
+      <c r="J462">
+        <v>1.5</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L462">
+        <v>1.5</v>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>32384-0,54184-7,54204-3</t>
+          <t>41723-8,41724-6,41725-3,54169-8</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>THI</t>
+          <t>TAT</t>
         </is>
       </c>
       <c r="B463">
-        <v>27200</v>
+        <v>9568512</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Thiamphenicol</t>
+          <t>Thioacetazone</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Phenicols</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>J01BA02,QJ01BA02,QJ51BA02</t>
+          <t>J04AK07,QJ04AK07</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Amphenicols</t>
+          <t>Drugs for treatment of tuberculosis</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>Amphenicols</t>
+          <t>Other drugs for treatment of tuberculosis</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>thiaph</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>armai,dextrosulfenidol,dextrosulphenidol,igralin,racefenicol,racefenicolo,racefenicolum,raceophenidol,thiamphenicolum,thiocymetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamycine</t>
-        </is>
-      </c>
-      <c r="J463">
-        <v>1.5</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L463">
-        <v>1.5</v>
-      </c>
-      <c r="M463" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M463" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>41723-8,41724-6,41725-3,54169-8</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>TAT</t>
-        </is>
-      </c>
-      <c r="B464">
-        <v>9568512</v>
+          <t>THI1</t>
+        </is>
+      </c>
+      <c r="B464" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Thioacetazone</t>
+          <t>Thioacetazone/isoniazid</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -28970,7 +28970,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>J04AK07,QJ04AK07</t>
+          <t>J04AM04,QJ04AM04</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>Other drugs for treatment of tuberculosis</t>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -29014,45 +29014,41 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>THI1</t>
-        </is>
-      </c>
-      <c r="B465" t="e">
-        <v>#N/A</v>
+          <t>TIA</t>
+        </is>
+      </c>
+      <c r="B465">
+        <v>656958</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Thioacetazone/isoniazid</t>
+          <t>Tiamulin</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>J04AM04,QJ04AM04</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>Drugs for treatment of tuberculosis</t>
-        </is>
-      </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>Combinations of drugs for treatment of tuberculosis</t>
-        </is>
+          <t>QJ01XQ01</t>
+        </is>
+      </c>
+      <c r="F465" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G465" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tiamul</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>denagard,thiamutilin,tiamulina,tiamuline,tiamulinum</t>
         </is>
       </c>
       <c r="J465" t="e">
@@ -29069,48 +29065,52 @@
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>35846-5,35847-3,35848-1,87589-8</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>TIC</t>
         </is>
       </c>
       <c r="B466">
-        <v>656958</v>
+        <v>36921</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Tiamulin</t>
+          <t>Ticarcillin</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Beta-lactams/penicillins</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>QJ01XQ01</t>
-        </is>
-      </c>
-      <c r="F466" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G466" t="e">
-        <v>#N/A</v>
+          <t>J01CA13,QJ01CA13</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Beta-lactam antibacterials, penicillins</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>tiamul</t>
+          <t>tc,ti,tic,tica,ticarc</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>denagard,thiamutilin,tiamulina,tiamuline,tiamulinum</t>
+          <t>ticar,ticarcilina,ticarcilline,ticarcillinum,timentin</t>
         </is>
       </c>
       <c r="J466" t="e">
@@ -29119,30 +29119,32 @@
       <c r="K466" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L466" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M466" t="e">
-        <v>#N/A</v>
+      <c r="L466">
+        <v>15</v>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>35846-5,35847-3,35848-1,87589-8</t>
+          <t>18994-4,18995-1,25254-4,4054-3,4055-0,499-4,500-9,501-7,502-5,503-3,504-1,505-8,506-6,55716-5,55717-3,55718-1,55719-9,7053-2,7054-0</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>TIC</t>
+          <t>TCC</t>
         </is>
       </c>
       <c r="B467">
-        <v>36921</v>
+        <v>6437075</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Ticarcillin</t>
+          <t>Ticarcillin/clavulanic acid</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -29152,7 +29154,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>J01CA13,QJ01CA13</t>
+          <t>J01CR03,QJ01CR03</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -29162,17 +29164,17 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Penicillins with extended spectrum</t>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>tc,ti,tic,tica,ticarc</t>
+          <t>t/c,tcc,ticcla,ticl,tim,tlc</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>ticar,ticarcilina,ticarcilline,ticarcillinum,timentin</t>
+          <t>augpenin</t>
         </is>
       </c>
       <c r="J467" t="e">
@@ -29191,52 +29193,52 @@
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>18994-4,18995-1,25254-4,4054-3,4055-0,499-4,500-9,501-7,502-5,503-3,504-1,505-8,506-6,55716-5,55717-3,55718-1,55719-9,7053-2,7054-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>TCC</t>
+          <t>TGC</t>
         </is>
       </c>
       <c r="B468">
-        <v>6437075</v>
+        <v>54686904</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Ticarcillin/clavulanic acid</t>
+          <t>Tigecycline</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>J01CR03,QJ01CR03</t>
+          <t>J01AA12,QJ01AA12</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Beta-lactam antibacterials, penicillins</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>t/c,tcc,ticcla,ticl,tim,tlc</t>
+          <t>tgc,tig,tige,tigecy</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>augpenin</t>
+          <t>tigeciclina,tigecyclin,tigecyclinehydrate,tigilcycline,tygacil</t>
         </is>
       </c>
       <c r="J468" t="e">
@@ -29246,7 +29248,7 @@
         <v>#N/A</v>
       </c>
       <c r="L468">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="M468" t="inlineStr">
         <is>
@@ -29255,52 +29257,48 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>101499-2,42354-1,42355-8,42356-6,42357-4,55158-0</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>TGC</t>
-        </is>
-      </c>
-      <c r="B469">
-        <v>54686904</v>
+          <t>TMN</t>
+        </is>
+      </c>
+      <c r="B469" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Tigecycline</t>
+          <t>Tigemonam</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>J01AA12,QJ01AA12</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>Tetracyclines</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>Tetracyclines</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F469" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G469" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>tgc,tig,tige,tigecy</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>tigeciclina,tigecyclin,tigecyclinehydrate,tigilcycline,tygacil</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J469" t="e">
@@ -29309,42 +29307,40 @@
       <c r="K469" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L469">
-        <v>0.1</v>
-      </c>
-      <c r="M469" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L469" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M469" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>101499-2,42354-1,42355-8,42356-6,42357-4,55158-0</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>TMN</t>
-        </is>
-      </c>
-      <c r="B470" t="e">
-        <v>#N/A</v>
+          <t>TBQ</t>
+        </is>
+      </c>
+      <c r="B470">
+        <v>65592</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Tigemonam</t>
+          <t>Tilbroquinol</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>P01AA05</t>
         </is>
       </c>
       <c r="F470" t="e">
@@ -29360,7 +29356,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tilbroquinolum</t>
         </is>
       </c>
       <c r="J470" t="e">
@@ -29384,25 +29380,25 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TBQ</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B471">
-        <v>65592</v>
+        <v>24860548</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Tilbroquinol</t>
+          <t>Tildipirosin</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>P01AA05</t>
+          <t>QJ01FA96</t>
         </is>
       </c>
       <c r="F471" t="e">
@@ -29418,7 +29414,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>tilbroquinolum</t>
+          <t>zuprevo</t>
         </is>
       </c>
       <c r="J471" t="e">
@@ -29435,22 +29431,22 @@
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>100060-3,88375-1,88377-7</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>TIL</t>
         </is>
       </c>
       <c r="B472">
-        <v>24860548</v>
+        <v>5282521</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Tildipirosin</t>
+          <t>Tilmicosin</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -29460,7 +29456,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>QJ01FA96</t>
+          <t>QJ01FA91</t>
         </is>
       </c>
       <c r="F472" t="e">
@@ -29471,12 +29467,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>tilmic</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>zuprevo</t>
+          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum,tilmovet</t>
         </is>
       </c>
       <c r="J472" t="e">
@@ -29493,167 +29489,169 @@
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>100060-3,88375-1,88377-7</t>
+          <t>35849-9,35850-7,35851-5,87588-0</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TIL</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B473">
-        <v>5282521</v>
+        <v>5479</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Tilmicosin</t>
+          <t>Tinidazole</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>QJ01FA91</t>
-        </is>
-      </c>
-      <c r="F473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G473" t="e">
-        <v>#N/A</v>
+          <t>G01AF21,J01XD02,P01AB02,QG01AF21,QJ01XD02,QP51AA02</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Imidazole derivatives</t>
+        </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>tilmic</t>
+          <t>tini</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum,tilmovet</t>
-        </is>
-      </c>
-      <c r="J473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L473" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M473" t="e">
-        <v>#N/A</v>
+          <t>amtiba,bioshik,fasigin,fasigyn,glongyn,haisigyn,isotinidazole,pletil,protozol,simplotan,sorquetan,symplotan,tindamax,tindazole,tinidazolum,tricolam,trimonase</t>
+        </is>
+      </c>
+      <c r="J473">
+        <v>2</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L473">
+        <v>1.5</v>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>35849-9,35850-7,35851-5,87588-0</t>
+          <t>54928-7,55720-7,55721-5,55722-3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>TCR</t>
         </is>
       </c>
       <c r="B474">
-        <v>5479</v>
+        <v>3001386</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Tinidazole</t>
+          <t>Tiocarlide</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>G01AF21,J01XD02,P01AB02,QG01AF21,QJ01XD02,QP51AA02</t>
+          <t>J04AD02,QJ04AD02</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Drugs for treatment of tuberculosis</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>Imidazole derivatives</t>
+          <t>Thiocarbamide derivatives</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>tini</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>amtiba,bioshik,fasigin,fasigyn,glongyn,haisigyn,isotinidazole,pletil,protozol,simplotan,sorquetan,symplotan,tindamax,tindazole,tinidazolum,tricolam,trimonase</t>
+          <t>aethoksid,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
         </is>
       </c>
       <c r="J474">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L474">
-        <v>1.5</v>
-      </c>
-      <c r="M474" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L474" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M474" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>54928-7,55720-7,55721-5,55722-3</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TCR</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B475">
-        <v>3001386</v>
+        <v>10247721</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Tiocarlide</t>
+          <t>Tiodonium chloride</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>J04AD02,QJ04AD02</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>Drugs for treatment of tuberculosis</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>Thiocarbamide derivatives</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G475" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
@@ -29662,16 +29660,14 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aethoksid,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
-        </is>
-      </c>
-      <c r="J475">
-        <v>7</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>tiodonium</t>
+        </is>
+      </c>
+      <c r="J475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K475" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L475" t="e">
         <v>#N/A</v>
@@ -29688,20 +29684,20 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>TXC</t>
         </is>
       </c>
       <c r="B476">
-        <v>10247721</v>
+        <v>65788</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Tiodonium chloride</t>
+          <t>Tioxacin</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -29722,7 +29718,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>tiodonium</t>
+          <t>tioxacine,tioxacino,tioxacinum</t>
         </is>
       </c>
       <c r="J476" t="e">
@@ -29746,20 +29742,20 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>TXC</t>
+          <t>TIZ</t>
         </is>
       </c>
       <c r="B477">
-        <v>65788</v>
+        <v>394397</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Tioxacin</t>
+          <t>Tizoxanide</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -29780,7 +29776,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>tioxacine,tioxacino,tioxacinum</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J477" t="e">
@@ -29797,48 +29793,52 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>73585-2,73607-4,73629-8</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>TIZ</t>
+          <t>TOB</t>
         </is>
       </c>
       <c r="B478">
-        <v>394397</v>
+        <v>36294</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Tizoxanide</t>
+          <t>Tobramycin</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G478" t="e">
-        <v>#N/A</v>
+          <t>J01GB01,QJ01GB01,QS01AA12,S01AA12</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Aminoglycoside antibacterials</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nn,tm,to,tob,tobr,tobram</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>aktob,bethkis,distobram,gotabiotic,kitabis,nebcin,nebicin,nebramycin,tenebrimycin,tenemycin,tobacin,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrex</t>
         </is>
       </c>
       <c r="J478" t="e">
@@ -29847,30 +29847,32 @@
       <c r="K478" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M478" t="e">
-        <v>#N/A</v>
+      <c r="L478">
+        <v>0.24</v>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>73585-2,73607-4,73629-8</t>
+          <t>101496-8,13584-8,17808-7,18996-9,22750-4,22751-2,22752-0,25227-0,25800-4,31094-6,31095-3,31096-1,35239-3,35670-9,4057-6,4058-4,4059-2,507-4,508-2,509-0,50927-3,510-8,52962-8,59380-6,7055-7,80966-5</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>TOB</t>
-        </is>
-      </c>
-      <c r="B479">
-        <v>36294</v>
+          <t>TOH</t>
+        </is>
+      </c>
+      <c r="B479" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Tobramycin</t>
+          <t>Tobramycin-high</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -29880,27 +29882,23 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>J01GB01,QJ01GB01,QS01AA12,S01AA12</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>Aminoglycoside antibacterials</t>
-        </is>
-      </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>Other aminoglycosides</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F479" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G479" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>nn,tm,to,tob,tobr,tobram</t>
+          <t>tobra high,tobramycin high,tohl</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aktob,bethkis,distobram,gotabiotic,kitabis,nebcin,nebicin,nebramycin,tenebrimycin,tenemycin,tobacin,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrex</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J479" t="e">
@@ -29909,42 +29907,40 @@
       <c r="K479" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L479">
-        <v>0.24</v>
-      </c>
-      <c r="M479" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L479" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M479" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>101496-8,13584-8,17808-7,18996-9,22750-4,22751-2,22752-0,25227-0,25800-4,31094-6,31095-3,31096-1,35239-3,35670-9,4057-6,4058-4,4059-2,507-4,508-2,509-0,50927-3,510-8,52962-8,59380-6,7055-7,80966-5</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>TOH</t>
-        </is>
-      </c>
-      <c r="B480" t="e">
-        <v>#N/A</v>
+          <t>TFX</t>
+        </is>
+      </c>
+      <c r="B480">
+        <v>5517</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Tobramycin-high</t>
+          <t>Tosufloxacin</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>J01MA22,QJ01MA22,QS01AE09,S01AE09</t>
         </is>
       </c>
       <c r="F480" t="e">
@@ -29955,7 +29951,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>tobra high,tobramycin high,tohl</t>
+          <t>tosufl</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -29963,11 +29959,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="J480" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K480" t="e">
-        <v>#N/A</v>
+      <c r="J480">
+        <v>0.45</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L480" t="e">
         <v>#N/A</v>
@@ -29977,82 +29975,88 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>100061-1,76146-0</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>TFX</t>
+          <t>TMP</t>
         </is>
       </c>
       <c r="B481">
-        <v>5517</v>
+        <v>5578</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Tosufloxacin</t>
+          <t>Trimethoprim</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>J01MA22,QJ01MA22,QS01AE09,S01AE09</t>
-        </is>
-      </c>
-      <c r="F481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G481" t="e">
-        <v>#N/A</v>
+          <t>J01EA01,QJ01EA01,QJ51EA01</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Sulfonamides and trimethoprim</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Trimethoprim and derivatives</t>
+        </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>tosufl</t>
+          <t>t,tmp,tr,tri,trim,w</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>abaprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacin,bacterial,bacticel,bactifor,bactoprim,bactramin,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,futin,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lastrim,lescot,monoprim,monotrim,monotrimin,novotrimel,omstat,pancidim,proloprim,protrin,purbal,resprim,roubac,roubal,salvatrim,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,trimethioprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexol,trimezol,trimogal,trimono,trimopan,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
         </is>
       </c>
       <c r="J481">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M481" t="e">
-        <v>#N/A</v>
+      <c r="L481">
+        <v>0.4</v>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>100061-1,76146-0</t>
+          <t>101495-0,11005-6,17747-7,18997-7,18998-5,20387-7,23614-1,23631-5,25273-4,32342-8,4079-0,4080-8,4081-6,511-6,512-4,513-2,514-0,515-7,516-5,517-3,518-1,55584-7,7056-5,7057-3,80552-3,80973-1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>TMP</t>
+          <t>SXT</t>
         </is>
       </c>
       <c r="B482">
-        <v>5578</v>
+        <v>358641</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Trimethoprim</t>
+          <t>Trimethoprim/sulfamethoxazole</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -30062,7 +30066,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>J01EA01,QJ01EA01,QJ51EA01</t>
+          <t>J01EE01</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -30072,90 +30076,88 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>Trimethoprim and derivatives</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>t,tmp,tr,tri,trim,w</t>
+          <t>cot,cotrim,sxt,t/s,tms,trisul,trsu,trsx,ts</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>abaprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacin,bacterial,bacticel,bactifor,bactoprim,bactramin,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,futin,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lastrim,lescot,monoprim,monotrim,monotrimin,novotrimel,omstat,pancidim,proloprim,protrin,purbal,resprim,roubac,roubal,salvatrim,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,trimethioprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexol,trimezol,trimogal,trimono,trimopan,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
-        </is>
-      </c>
-      <c r="J482">
-        <v>0.4</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L482">
-        <v>0.4</v>
-      </c>
-      <c r="M482" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrizol,bactromin,bactropin,baktar,benzenesulfonamide,berlocid,bibacrim,biseptol,centran,centrin,chemitrim,chemotrim,ciplin,comox,cotribene,cotrim,cotrimhexal,cotrimoxazol,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,eslectin,esteprim,eusaprim,fectrim,gamazole,gantanol,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,insozalin,jenamoxazol,kemoprim,kepinol,laratrim,linaris,maxtrim,metoxal,microtrim,mikrosid,momentol,nopil,oecotrim,omsat,oriprim,oxaprim,pantoprim,potrox,primazole,radonil,septra,septrim,servitrim,sigaprim,sigaprin,sulfatrim,sulfotrim,sulfotrimin,sulmeprim,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,tribakin,trifen,trigonyl,trimedin,trimesulf,trimethoprimsulfa,trimetoger,trimexazol,trimezole,trimforte,trimosulfa,uroplus</t>
+        </is>
+      </c>
+      <c r="J482" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K482" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L482" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M482" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>101495-0,11005-6,17747-7,18997-7,18998-5,20387-7,23614-1,23631-5,25273-4,32342-8,4079-0,4080-8,4081-6,511-6,512-4,513-2,514-0,515-7,516-5,517-3,518-1,55584-7,7056-5,7057-3,80552-3,80973-1</t>
+          <t>101495-0,18998-5,20387-7,23631-5,25273-4,32342-8,4081-6,515-7,516-5,517-3,518-1,7057-3</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SXT</t>
+          <t>TRL</t>
         </is>
       </c>
       <c r="B483">
-        <v>358641</v>
+        <v>202225</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Trimethoprim/sulfamethoxazole</t>
+          <t>Troleandomycin</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>J01EE01</t>
+          <t>J01FA08,QJ01FA08</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Sulfonamides and trimethoprim</t>
+          <t>Macrolides, lincosamides and streptogramins</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>cot,cotrim,sxt,t/s,tms,trisul,trsu,trsx,ts</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrizol,bactromin,bactropin,baktar,benzenesulfonamide,berlocid,bibacrim,biseptol,centran,centrin,chemitrim,chemotrim,ciplin,comox,cotribene,cotrim,cotrimhexal,cotrimoxazol,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,eslectin,esteprim,eusaprim,fectrim,gamazole,gantanol,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,insozalin,jenamoxazol,kemoprim,kepinol,laratrim,linaris,maxtrim,metoxal,microtrim,mikrosid,momentol,nopil,oecotrim,omsat,oriprim,oxaprim,pantoprim,potrox,primazole,radonil,septra,septrim,servitrim,sigaprim,sigaprin,sulfatrim,sulfotrim,sulfotrimin,sulmeprim,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,tribakin,trifen,trigonyl,trimedin,trimesulf,trimethoprimsulfa,trimetoger,trimexazol,trimezole,trimforte,trimosulfa,uroplus</t>
-        </is>
-      </c>
-      <c r="J483" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K483" t="e">
-        <v>#N/A</v>
+          <t>aovine,cyclamycin,evramicina,matromicina,oleandocetin,oleandocetine,tekmisin,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
+        </is>
+      </c>
+      <c r="J483">
+        <v>1</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L483" t="e">
         <v>#N/A</v>
@@ -30165,61 +30167,55 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>101495-0,18998-5,20387-7,23631-5,25273-4,32342-8,4081-6,515-7,516-5,517-3,518-1,7057-3</t>
+          <t>18999-3,519-9,520-7,521-5,522-3</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>TRL</t>
+          <t>TRO</t>
         </is>
       </c>
       <c r="B484">
-        <v>202225</v>
+        <v>55886</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Troleandomycin</t>
+          <t>Trospectomycin</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>J01FA08,QJ01FA08</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>Macrolides, lincosamides and streptogramins</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>Macrolides</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G484" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>trospe</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aovine,cyclamycin,evramicina,matromicina,oleandocetin,oleandocetine,tekmisin,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
-        </is>
-      </c>
-      <c r="J484">
-        <v>1</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
+        </is>
+      </c>
+      <c r="J484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K484" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L484" t="e">
         <v>#N/A</v>
@@ -30229,146 +30225,146 @@
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>18999-3,519-9,520-7,521-5,522-3</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TRO</t>
+          <t>TVA</t>
         </is>
       </c>
       <c r="B485">
-        <v>55886</v>
+        <v>62959</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Trospectomycin</t>
+          <t>Trovafloxacin</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G485" t="e">
-        <v>#N/A</v>
+          <t>J01MA13,QJ01MA13</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Quinolone antibacterials</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>trospe</t>
+          <t>trov,trovaf</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
-        </is>
-      </c>
-      <c r="J485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M485" t="e">
-        <v>#N/A</v>
+          <t>trovan,turvel</t>
+        </is>
+      </c>
+      <c r="J485">
+        <v>0.2</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L485">
+        <v>0.2</v>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>23642-2,23643-0,35855-6,7058-1</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TVA</t>
+          <t>TUL</t>
         </is>
       </c>
       <c r="B486">
-        <v>62959</v>
+        <v>9832301</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Trovafloxacin</t>
+          <t>Tulathromycin</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>J01MA13,QJ01MA13</t>
-        </is>
-      </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>Quinolone antibacterials</t>
-        </is>
-      </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>Fluoroquinolones</t>
-        </is>
+          <t>QJ01FA94</t>
+        </is>
+      </c>
+      <c r="F486" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G486" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>trov,trovaf</t>
+          <t>tulath</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>trovan,turvel</t>
-        </is>
-      </c>
-      <c r="J486">
-        <v>0.2</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L486">
-        <v>0.2</v>
-      </c>
-      <c r="M486" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>arovyn,draxxin,increxxa,macrosyn,tulieve,tulissin</t>
+        </is>
+      </c>
+      <c r="J486" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K486" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L486" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M486" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>23642-2,23643-0,35855-6,7058-1</t>
+          <t>76149-4,87798-5</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>TUL</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B487">
-        <v>9832301</v>
+        <v>5280440</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Tulathromycin</t>
+          <t>Tylosin</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -30378,7 +30374,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>QJ01FA94</t>
+          <t>QJ01FA90,QJ51FA90</t>
         </is>
       </c>
       <c r="F487" t="e">
@@ -30389,12 +30385,12 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>tulath</t>
+          <t>tylo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>arovyn,draxxin,increxxa,macrosyn,tulieve,tulissin</t>
+          <t>fradizine,tilosina,tylan,tylocine,tylosine,tylosinum,vubityl</t>
         </is>
       </c>
       <c r="J487" t="e">
@@ -30411,22 +30407,22 @@
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>76149-4,87798-5</t>
+          <t>35856-4,35857-2,35858-0,87587-2</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>TYL1</t>
         </is>
       </c>
       <c r="B488">
-        <v>5280440</v>
+        <v>6441094</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Tylosin</t>
+          <t>Tylvalosin</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -30436,7 +30432,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>QJ01FA90,QJ51FA90</t>
+          <t>QJ01FA92</t>
         </is>
       </c>
       <c r="F488" t="e">
@@ -30447,12 +30443,12 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>tylo</t>
+          <t>tvn</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>fradizine,tilosina,tylan,tylocine,tylosine,tylosinum,vubityl</t>
+          <t>aivlosin</t>
         </is>
       </c>
       <c r="J488" t="e">
@@ -30469,32 +30465,32 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>35856-4,35857-2,35858-0,87587-2</t>
+          <t>101526-2,87586-4</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TYL1</t>
+          <t>PRU1</t>
         </is>
       </c>
       <c r="B489">
-        <v>6441094</v>
+        <v>124225</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Tylvalosin</t>
+          <t>Ulifloxacin (Prulifloxacin)</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>QJ01FA92</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F489" t="e">
@@ -30505,12 +30501,12 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>tvn</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aivlosin</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J489" t="e">
@@ -30527,80 +30523,88 @@
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>101526-2,87586-4</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>PRU1</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="B490">
-        <v>124225</v>
+        <v>14969</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Ulifloxacin (Prulifloxacin)</t>
+          <t>Vancomycin</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
+          <t>Glycopeptides</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>A07AA09,J01XA01,QA07AA09,QJ01XA01,QS01AA28,S01AA28</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
           <t>Other antibacterials</t>
         </is>
       </c>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F490" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G490" t="e">
-        <v>#N/A</v>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>va,van,vanc,vancom</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J490" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K490" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L490" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M490" t="e">
-        <v>#N/A</v>
+          <t>vancocin,vancoled,vancomicina,vancomycine,vancomycinum</t>
+        </is>
+      </c>
+      <c r="J490">
+        <v>2</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L490">
+        <v>2</v>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13586-3,13587-1,19000-9,20578-1,23615-8,25228-8,31012-8,39092-2,39796-8,39797-6,4089-9,4090-7,4091-5,4092-3,50938-0,523-1,524-9,525-6,526-4,59381-4,7059-9,92241-9,97657-1</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="B491">
-        <v>14969</v>
+          <t>VAM</t>
+        </is>
+      </c>
+      <c r="B491" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin-macromethod</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -30610,68 +30614,60 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>A07AA09,J01XA01,QA07AA09,QJ01XA01,QS01AA28,S01AA28</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
-      </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>Glycopeptide antibacterials</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F491" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G491" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>va,van,vanc,vancom</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>vancocin,vancoled,vancomicina,vancomycine,vancomycinum</t>
-        </is>
-      </c>
-      <c r="J491">
-        <v>2</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L491">
-        <v>2</v>
-      </c>
-      <c r="M491" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J491" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K491" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L491" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M491" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>13586-3,13587-1,19000-9,20578-1,23615-8,25228-8,31012-8,39092-2,39796-8,39797-6,4089-9,4090-7,4091-5,4092-3,50938-0,523-1,524-9,525-6,526-4,59381-4,7059-9,92241-9,97657-1</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>VAM</t>
-        </is>
-      </c>
-      <c r="B492" t="e">
-        <v>#N/A</v>
+          <t>VIO</t>
+        </is>
+      </c>
+      <c r="B492">
+        <v>135398671</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Vancomycin-macromethod</t>
+          <t>Viomycin</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -30692,7 +30688,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>florimycin,floromycin,vioactane,viocin,viomicin,viomicina,viomycine,viomycinum</t>
         </is>
       </c>
       <c r="J492" t="e">
@@ -30709,27 +30705,27 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19001-7,23616-6,527-2,528-0,529-8,530-6</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>VIO</t>
+          <t>VIR</t>
         </is>
       </c>
       <c r="B493">
-        <v>135398671</v>
+        <v>11979535</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Viomycin</t>
+          <t>Virginiamycine</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -30750,7 +30746,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>florimycin,floromycin,vioactane,viocin,viomicin,viomicina,viomycine,viomycinum</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J493" t="e">
@@ -30767,146 +30763,150 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>19001-7,23616-6,527-2,528-0,529-8,530-6</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>VIR</t>
+          <t>VOR</t>
         </is>
       </c>
       <c r="B494">
-        <v>11979535</v>
+        <v>71616</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Virginiamycine</t>
+          <t>Voriconazole</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antifungals/antimycotics</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F494" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G494" t="e">
-        <v>#N/A</v>
+          <t>J02AC03,QJ02AC03</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Triazole derivatives</t>
+        </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>vori,vorico,vrc</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J494" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K494" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L494" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M494" t="e">
-        <v>#N/A</v>
+          <t>vfend,voriconazol,voriconazolum,voriconzole,vorikonazole</t>
+        </is>
+      </c>
+      <c r="J494">
+        <v>0.4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L494">
+        <v>0.4</v>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32379-0,35862-2,35863-0,38370-3,41199-1,41200-7,53902-3,73676-9,80553-1,80651-3</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>VOR</t>
+          <t>XBR</t>
         </is>
       </c>
       <c r="B495">
-        <v>71616</v>
+        <v>72144</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Voriconazole</t>
+          <t>Xibornol</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>J02AC03,QJ02AC03</t>
+          <t>J01XX02,QJ01XX02</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Antimycotics for systemic use</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>Triazole derivatives</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>vori,vorico,vrc</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>vfend,voriconazol,voriconazolum,voriconzole,vorikonazole</t>
-        </is>
-      </c>
-      <c r="J495">
-        <v>0.4</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L495">
-        <v>0.4</v>
-      </c>
-      <c r="M495" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
+        </is>
+      </c>
+      <c r="J495" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K495" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L495" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M495" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>32379-0,35862-2,35863-0,38370-3,41199-1,41200-7,53902-3,73676-9,80553-1,80651-3</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>XBR</t>
+          <t>ZID</t>
         </is>
       </c>
       <c r="B496">
-        <v>72144</v>
+        <v>77846445</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Xibornol</t>
+          <t>Zidebactam</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -30916,18 +30916,14 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>J01XX02,QJ01XX02</t>
-        </is>
-      </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
-      </c>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F496" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G496" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
@@ -30936,7 +30932,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
+          <t>zidebactamsalt</t>
         </is>
       </c>
       <c r="J496" t="e">
@@ -30960,21 +30956,19 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ZID</t>
-        </is>
-      </c>
-      <c r="B497">
-        <v>77846445</v>
+          <t>ZFD</t>
+        </is>
+      </c>
+      <c r="B497" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Zidebactam</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
+          <t>Zoliflodacin</t>
+        </is>
+      </c>
+      <c r="D497" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -30989,12 +30983,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>zol</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>zidebactamsalt</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J497" t="e">
@@ -31010,62 +31004,6 @@
         <v>#N/A</v>
       </c>
       <c r="N497" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>ZFD</t>
-        </is>
-      </c>
-      <c r="B498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>Zoliflodacin</t>
-        </is>
-      </c>
-      <c r="D498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I498" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M498" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N498" t="inlineStr">
         <is>
           <t>NA</t>
         </is>

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Aminoglycosides,Phosphonics</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Aminopenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Aminopenicillins,Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Aminopenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Ureidopenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Monobactams,Beta-lactams</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Monobactams,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Monobactams,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Monobactams,Beta-lactams</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cephalosporins (unclassified gen.)</t>
+          <t>Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cephalosporins (unclassified gen.)</t>
+          <t>Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cephalosporins (4th gen.)</t>
+          <t>Cephalosporins (4th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cephalosporins (unclassified gen.)</t>
+          <t>Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cephalosporins (5th gen.)</t>
+          <t>Cephalosporins (5th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cephalosporins (5th gen.)</t>
+          <t>Cephalosporins (5th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Cephalosporins (5th gen.)</t>
+          <t>Cephalosporins (5th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cephalosporins (5th gen.)</t>
+          <t>Cephalosporins (5th gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cephalosporins (5th gen.)</t>
+          <t>Cephalosporins (5th gen.),Cephalosporins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Cephalosporins (1st gen.)</t>
+          <t>Cephalosporins (1st gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Lincosamides</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Lincosamides,Macrolides</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Lipoglycopeptides,Glycopeptides</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -12175,8 +12175,10 @@
           <t>Exebacase</t>
         </is>
       </c>
-      <c r="D192" t="e">
-        <v>#N/A</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -12233,7 +12235,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -12297,7 +12299,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -12357,7 +12359,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -12415,7 +12417,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -12473,7 +12475,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -12539,7 +12541,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -12657,7 +12659,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -12723,7 +12725,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -12789,7 +12791,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -12919,7 +12921,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -12983,7 +12985,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13107,7 +13109,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13223,7 +13225,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Nitrofurans</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13287,7 +13289,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Nitrofurans</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13345,7 +13347,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -13411,7 +13413,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -13469,7 +13471,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -13529,7 +13531,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -13595,7 +13597,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -13783,7 +13785,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -13841,7 +13843,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -13905,7 +13907,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14023,7 +14025,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14085,7 +14087,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14265,7 +14267,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14323,7 +14325,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14387,7 +14389,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14445,7 +14447,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14505,7 +14507,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14631,7 +14633,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14821,7 +14823,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14887,7 +14889,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -15133,7 +15135,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -15197,7 +15199,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -15255,7 +15257,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -15313,7 +15315,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -15377,7 +15379,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Cephalosporins (3rd gen.)</t>
+          <t>Cephalosporins (3rd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -15441,7 +15443,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -15499,7 +15501,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -15557,7 +15559,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -15623,7 +15625,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -15685,7 +15687,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -15743,7 +15745,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -15801,7 +15803,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Lincosamides</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -15933,7 +15935,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -15991,7 +15993,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -16055,7 +16057,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Cephalosporins (2nd gen.)</t>
+          <t>Cephalosporins (2nd gen.),Cephalosporins,Beta-lactams</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -16185,7 +16187,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -16307,7 +16309,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -16365,7 +16367,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -16429,7 +16431,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -16487,7 +16489,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -16551,7 +16553,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -16609,7 +16611,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -16673,7 +16675,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -16795,7 +16797,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -16861,7 +16863,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -16925,7 +16927,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -16989,7 +16991,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -17047,7 +17049,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -17105,7 +17107,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -17171,7 +17173,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Ureidopenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -17235,7 +17237,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -17293,7 +17295,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -17357,7 +17359,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -17481,7 +17483,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -17547,7 +17549,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -17671,7 +17673,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -17735,7 +17737,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -17855,7 +17857,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -17921,7 +17923,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -17979,7 +17981,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -18037,7 +18039,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -18095,7 +18097,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -18155,7 +18157,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -18335,7 +18337,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -18393,7 +18395,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -18587,7 +18589,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -18645,7 +18647,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -18703,7 +18705,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Nitrofurans</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -18767,7 +18769,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -18827,7 +18829,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Nitrofurans</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -18891,7 +18893,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Nitrofurans</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -18949,7 +18951,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -19013,7 +19015,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -19077,7 +19079,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -19135,7 +19137,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -19197,7 +19199,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -19317,7 +19319,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -19375,7 +19377,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -19435,7 +19437,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -19501,7 +19503,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -19563,7 +19565,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -19689,7 +19691,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -19747,7 +19749,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -19805,7 +19807,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Lipoglycopeptides,Glycopeptides</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -19867,7 +19869,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -19925,7 +19927,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -19991,7 +19993,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -20055,7 +20057,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -20121,7 +20123,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Isoxazolylpenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -20307,8 +20309,10 @@
           <t>Ozenoxacin</t>
         </is>
       </c>
-      <c r="D324" t="e">
-        <v>#N/A</v>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Quinolones</t>
+        </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -20423,7 +20427,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -20481,7 +20485,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -20541,7 +20545,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -20605,7 +20609,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -20671,7 +20675,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -20729,7 +20733,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -20793,7 +20797,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -20851,7 +20855,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -21029,7 +21033,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -21087,7 +21091,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -21145,7 +21149,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -21209,7 +21213,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -21273,7 +21277,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -21395,7 +21399,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Ureidopenicillins,Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -21459,7 +21463,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -21519,7 +21523,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Ureidopenicillins,Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -21583,7 +21587,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -21641,7 +21645,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Lincosamides,Macrolides</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -21763,7 +21767,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -21827,7 +21831,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -22073,7 +22077,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -22139,7 +22143,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -22197,7 +22201,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -22319,7 +22323,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -22377,7 +22381,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Streptogramins</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -22441,7 +22445,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -22505,7 +22509,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -22691,7 +22695,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -22819,7 +22823,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Streptogramins</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -22881,7 +22885,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -22997,7 +23001,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -23055,7 +23059,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -23175,7 +23179,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -23303,7 +23307,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -23361,7 +23365,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -23425,7 +23429,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -23491,7 +23495,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -23553,7 +23557,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -23615,7 +23619,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -23677,7 +23681,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -23739,7 +23743,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -23805,7 +23809,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Rifamycins,Antimycobacterials</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -23869,7 +23873,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -23933,7 +23937,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -23991,7 +23995,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -24049,7 +24053,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -24241,7 +24245,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -24305,7 +24309,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -24369,7 +24373,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -24427,7 +24431,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -24549,7 +24553,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -24607,7 +24611,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -24731,7 +24735,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -24857,7 +24861,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -24915,7 +24919,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -24979,7 +24983,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -25043,7 +25047,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -25107,7 +25111,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -25417,7 +25421,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -25481,7 +25485,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -25545,7 +25549,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -25603,7 +25607,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -25661,7 +25665,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -25725,7 +25729,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -25849,7 +25853,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -25913,7 +25917,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -26039,7 +26043,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -26105,7 +26109,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -26171,7 +26175,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -26235,7 +26239,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -26299,7 +26303,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -26425,7 +26429,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -26483,7 +26487,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -26547,7 +26551,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -26611,7 +26615,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -26675,7 +26679,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -26737,7 +26741,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -26863,7 +26867,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -26991,7 +26995,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -27053,7 +27057,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -27117,7 +27121,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -27181,7 +27185,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -27245,7 +27249,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -27303,7 +27307,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -27365,7 +27369,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -27429,7 +27433,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -27487,7 +27491,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -27545,7 +27549,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -27603,7 +27607,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -27667,7 +27671,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -27725,7 +27729,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -27789,7 +27793,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -27847,7 +27851,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -27905,7 +27909,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -27967,7 +27971,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Carbapenems,Beta-lactams</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -28213,7 +28217,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Lipoglycopeptides,Glycopeptides</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -28275,7 +28279,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -28339,7 +28343,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -28403,7 +28407,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -28467,7 +28471,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -28531,7 +28535,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -28775,7 +28779,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -28837,7 +28841,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -29143,7 +29147,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -29201,7 +29205,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -29265,7 +29269,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Penicillins,Beta-lactams,Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -29393,7 +29397,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Monobactams,Beta-lactams</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -29451,7 +29455,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -29509,7 +29513,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -29567,7 +29571,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -29625,7 +29629,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -29755,7 +29759,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -29813,7 +29817,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -29871,7 +29875,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -30051,7 +30055,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -30239,7 +30243,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -30303,7 +30307,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -30361,7 +30365,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Fluoroquinolones,Quinolones</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -30427,7 +30431,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -30485,7 +30489,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -30543,7 +30547,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -30601,7 +30605,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -30841,7 +30845,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -30899,7 +30903,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Antifungals</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -30965,7 +30969,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -31027,7 +31031,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Beta-lactamase inhibitors</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -31083,8 +31087,10 @@
           <t>Zoliflodacin</t>
         </is>
       </c>
-      <c r="D499" t="e">
-        <v>#N/A</v>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Spiropyrimidinetriones</t>
+        </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>

--- a/data-raw/datasets/antimicrobials.xlsx
+++ b/data-raw/datasets/antimicrobials.xlsx
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trimethoprims,Sulfonamides</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Trimethoprims,Sulfonamides,Antimycobacterials</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -19869,7 +19869,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -25607,7 +25607,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -25791,7 +25791,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -26367,7 +26367,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -28779,7 +28779,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -30181,7 +30181,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Trimethoprims,Sulfonamides</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
